--- a/music/notes.xlsx
+++ b/music/notes.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12345" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="23256" windowHeight="12348" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="155">
   <si>
     <t>A♯7／B♭7</t>
   </si>
@@ -527,17 +527,42 @@
   </si>
   <si>
     <t>http://geek.tan8.com/keyboard-43927.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -737,7 +762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,15 +814,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,9 +833,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,6 +857,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -941,7 +987,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -976,7 +1021,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1152,21 +1196,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:N85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C1:O85"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32" customWidth="1"/>
-    <col min="14" max="14" width="22.125" customWidth="1"/>
+    <col min="14" max="14" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:15">
+      <c r="M1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="3:15">
       <c r="C2">
         <v>100000000</v>
       </c>
@@ -1194,14 +1243,18 @@
         <v>`define note_B7 22'd12654</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="N2" t="str">
-        <f>CONCATENATE("7'd", M2, ": note = `note_", H2, ";")</f>
-        <v>7'd0: note = `note_B7;</v>
-      </c>
-    </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("8'd", M2, ": note = `note_", H2, ";")</f>
+        <v>8'd84: note = `note_B7;</v>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" ref="O2:O65" si="0">DEC2HEX(M2)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="3:15">
       <c r="C3">
         <v>100000000</v>
       </c>
@@ -1221,22 +1274,26 @@
         <v>124</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J66" si="0">ROUND(C3/E3/2-1, 0)</f>
+        <f t="shared" ref="J3:J66" si="1">ROUND(C3/E3/2-1, 0)</f>
         <v>13406</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K66" si="1">CONCATENATE(G3, "note_", H3,  " ", I3, J3)</f>
+        <f t="shared" ref="K3:K66" si="2">CONCATENATE(G3, "note_", H3,  " ", I3, J3)</f>
         <v>`define note_A7p 22'd13406</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N66" si="2">CONCATENATE("7'd", M3, ": note = `note_", H3, ";")</f>
-        <v>7'd1: note = `note_A7p;</v>
-      </c>
-    </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N3:N66" si="3">CONCATENATE("8'd", M3, ": note = `note_", H3, ";")</f>
+        <v>8'd83: note = `note_A7p;</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15">
       <c r="C4">
         <v>100000000</v>
       </c>
@@ -1256,22 +1313,26 @@
         <v>123</v>
       </c>
       <c r="J4" s="1">
+        <f t="shared" si="1"/>
+        <v>14204</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_A7 22'd14204</v>
+      </c>
+      <c r="M4">
+        <v>82</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd82: note = `note_A7;</v>
+      </c>
+      <c r="O4" t="str">
         <f t="shared" si="0"/>
-        <v>14204</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_A7 22'd14204</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd2: note = `note_A7;</v>
-      </c>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15">
       <c r="C5">
         <v>100000000</v>
       </c>
@@ -1291,22 +1352,26 @@
         <v>123</v>
       </c>
       <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>15048</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_G7p 22'd15048</v>
+      </c>
+      <c r="M5">
+        <v>81</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd81: note = `note_G7p;</v>
+      </c>
+      <c r="O5" t="str">
         <f t="shared" si="0"/>
-        <v>15048</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_G7p 22'd15048</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd3: note = `note_G7p;</v>
-      </c>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15">
       <c r="C6">
         <v>100000000</v>
       </c>
@@ -1326,22 +1391,26 @@
         <v>123</v>
       </c>
       <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>15943</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_G7 22'd15943</v>
+      </c>
+      <c r="M6">
+        <v>80</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd80: note = `note_G7;</v>
+      </c>
+      <c r="O6" t="str">
         <f t="shared" si="0"/>
-        <v>15943</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_G7 22'd15943</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd4: note = `note_G7;</v>
-      </c>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15">
       <c r="C7">
         <v>100000000</v>
       </c>
@@ -1361,22 +1430,26 @@
         <v>123</v>
       </c>
       <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>16891</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_F7p 22'd16891</v>
+      </c>
+      <c r="M7">
+        <v>79</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd79: note = `note_F7p;</v>
+      </c>
+      <c r="O7" t="str">
         <f t="shared" si="0"/>
-        <v>16891</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_F7p 22'd16891</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd5: note = `note_F7p;</v>
-      </c>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+        <v>4F</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15">
       <c r="C8">
         <v>100000000</v>
       </c>
@@ -1396,22 +1469,26 @@
         <v>123</v>
       </c>
       <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>17896</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_F7 22'd17896</v>
+      </c>
+      <c r="M8">
+        <v>78</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd78: note = `note_F7;</v>
+      </c>
+      <c r="O8" t="str">
         <f t="shared" si="0"/>
-        <v>17896</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_F7 22'd17896</v>
-      </c>
-      <c r="M8">
-        <v>6</v>
-      </c>
-      <c r="N8" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd6: note = `note_F7;</v>
-      </c>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+        <v>4E</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15">
       <c r="C9">
         <v>100000000</v>
       </c>
@@ -1431,22 +1508,26 @@
         <v>123</v>
       </c>
       <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>18960</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_E7 22'd18960</v>
+      </c>
+      <c r="M9">
+        <v>77</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd77: note = `note_E7;</v>
+      </c>
+      <c r="O9" t="str">
         <f t="shared" si="0"/>
-        <v>18960</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_E7 22'd18960</v>
-      </c>
-      <c r="M9">
-        <v>7</v>
-      </c>
-      <c r="N9" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd7: note = `note_E7;</v>
-      </c>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+        <v>4D</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15">
       <c r="C10">
         <v>100000000</v>
       </c>
@@ -1466,22 +1547,26 @@
         <v>123</v>
       </c>
       <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>20087</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_D7p 22'd20087</v>
+      </c>
+      <c r="M10">
+        <v>76</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd76: note = `note_D7p;</v>
+      </c>
+      <c r="O10" t="str">
         <f t="shared" si="0"/>
-        <v>20087</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_D7p 22'd20087</v>
-      </c>
-      <c r="M10">
-        <v>8</v>
-      </c>
-      <c r="N10" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd8: note = `note_D7p;</v>
-      </c>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+        <v>4C</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15">
       <c r="C11">
         <v>100000000</v>
       </c>
@@ -1501,22 +1586,26 @@
         <v>123</v>
       </c>
       <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>21282</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_D7 22'd21282</v>
+      </c>
+      <c r="M11">
+        <v>75</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd75: note = `note_D7;</v>
+      </c>
+      <c r="O11" t="str">
         <f t="shared" si="0"/>
-        <v>21282</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_D7 22'd21282</v>
-      </c>
-      <c r="M11">
-        <v>9</v>
-      </c>
-      <c r="N11" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd9: note = `note_D7;</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+        <v>4B</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15">
       <c r="C12">
         <v>100000000</v>
       </c>
@@ -1536,22 +1625,26 @@
         <v>123</v>
       </c>
       <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>22547</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_C7p 22'd22547</v>
+      </c>
+      <c r="M12">
+        <v>74</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd74: note = `note_C7p;</v>
+      </c>
+      <c r="O12" t="str">
         <f t="shared" si="0"/>
-        <v>22547</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_C7p 22'd22547</v>
-      </c>
-      <c r="M12">
-        <v>10</v>
-      </c>
-      <c r="N12" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd10: note = `note_C7p;</v>
-      </c>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+        <v>4A</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15">
       <c r="C13">
         <v>100000000</v>
       </c>
@@ -1571,22 +1664,26 @@
         <v>123</v>
       </c>
       <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>23888</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_C7 22'd23888</v>
+      </c>
+      <c r="M13">
+        <v>73</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd73: note = `note_C7;</v>
+      </c>
+      <c r="O13" t="str">
         <f t="shared" si="0"/>
-        <v>23888</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_C7 22'd23888</v>
-      </c>
-      <c r="M13">
-        <v>11</v>
-      </c>
-      <c r="N13" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd11: note = `note_C7;</v>
-      </c>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15">
       <c r="C14">
         <v>100000000</v>
       </c>
@@ -1606,22 +1703,26 @@
         <v>123</v>
       </c>
       <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>25309</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_B6 22'd25309</v>
+      </c>
+      <c r="M14">
+        <v>72</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd72: note = `note_B6;</v>
+      </c>
+      <c r="O14" t="str">
         <f t="shared" si="0"/>
-        <v>25309</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_B6 22'd25309</v>
-      </c>
-      <c r="M14">
-        <v>12</v>
-      </c>
-      <c r="N14" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd12: note = `note_B6;</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15">
       <c r="C15">
         <v>100000000</v>
       </c>
@@ -1641,22 +1742,26 @@
         <v>123</v>
       </c>
       <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>26814</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_A6p 22'd26814</v>
+      </c>
+      <c r="M15">
+        <v>71</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd71: note = `note_A6p;</v>
+      </c>
+      <c r="O15" t="str">
         <f t="shared" si="0"/>
-        <v>26814</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_A6p 22'd26814</v>
-      </c>
-      <c r="M15">
-        <v>13</v>
-      </c>
-      <c r="N15" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd13: note = `note_A6p;</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15">
       <c r="C16">
         <v>100000000</v>
       </c>
@@ -1676,22 +1781,26 @@
         <v>123</v>
       </c>
       <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>28408</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_A6 22'd28408</v>
+      </c>
+      <c r="M16">
+        <v>70</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd70: note = `note_A6;</v>
+      </c>
+      <c r="O16" t="str">
         <f t="shared" si="0"/>
-        <v>28408</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_A6 22'd28408</v>
-      </c>
-      <c r="M16">
-        <v>14</v>
-      </c>
-      <c r="N16" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd14: note = `note_A6;</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15">
       <c r="C17">
         <v>100000000</v>
       </c>
@@ -1711,22 +1820,26 @@
         <v>123</v>
       </c>
       <c r="J17" s="1">
+        <f t="shared" si="1"/>
+        <v>30097</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_G6p 22'd30097</v>
+      </c>
+      <c r="M17">
+        <v>69</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd69: note = `note_G6p;</v>
+      </c>
+      <c r="O17" t="str">
         <f t="shared" si="0"/>
-        <v>30097</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_G6p 22'd30097</v>
-      </c>
-      <c r="M17">
-        <v>15</v>
-      </c>
-      <c r="N17" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd15: note = `note_G6p;</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15">
       <c r="C18">
         <v>100000000</v>
       </c>
@@ -1746,22 +1859,26 @@
         <v>123</v>
       </c>
       <c r="J18" s="1">
+        <f t="shared" si="1"/>
+        <v>31887</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_G6 22'd31887</v>
+      </c>
+      <c r="M18">
+        <v>68</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd68: note = `note_G6;</v>
+      </c>
+      <c r="O18" t="str">
         <f t="shared" si="0"/>
-        <v>31887</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_G6 22'd31887</v>
-      </c>
-      <c r="M18">
-        <v>16</v>
-      </c>
-      <c r="N18" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd16: note = `note_G6;</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15">
       <c r="C19">
         <v>100000000</v>
       </c>
@@ -1781,22 +1898,26 @@
         <v>123</v>
       </c>
       <c r="J19" s="1">
+        <f t="shared" si="1"/>
+        <v>33783</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_F6p 22'd33783</v>
+      </c>
+      <c r="M19">
+        <v>67</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd67: note = `note_F6p;</v>
+      </c>
+      <c r="O19" t="str">
         <f t="shared" si="0"/>
-        <v>33783</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_F6p 22'd33783</v>
-      </c>
-      <c r="M19">
-        <v>17</v>
-      </c>
-      <c r="N19" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd17: note = `note_F6p;</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15">
       <c r="C20">
         <v>100000000</v>
       </c>
@@ -1816,22 +1937,26 @@
         <v>123</v>
       </c>
       <c r="J20" s="1">
+        <f t="shared" si="1"/>
+        <v>35792</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_F6 22'd35792</v>
+      </c>
+      <c r="M20">
+        <v>66</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd66: note = `note_F6;</v>
+      </c>
+      <c r="O20" t="str">
         <f t="shared" si="0"/>
-        <v>35792</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_F6 22'd35792</v>
-      </c>
-      <c r="M20">
-        <v>18</v>
-      </c>
-      <c r="N20" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd18: note = `note_F6;</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15">
       <c r="C21">
         <v>100000000</v>
       </c>
@@ -1851,22 +1976,26 @@
         <v>123</v>
       </c>
       <c r="J21" s="1">
+        <f t="shared" si="1"/>
+        <v>37921</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_E6 22'd37921</v>
+      </c>
+      <c r="M21">
+        <v>65</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd65: note = `note_E6;</v>
+      </c>
+      <c r="O21" t="str">
         <f t="shared" si="0"/>
-        <v>37921</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_E6 22'd37921</v>
-      </c>
-      <c r="M21">
-        <v>19</v>
-      </c>
-      <c r="N21" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd19: note = `note_E6;</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15">
       <c r="C22">
         <v>100000000</v>
       </c>
@@ -1886,22 +2015,26 @@
         <v>123</v>
       </c>
       <c r="J22" s="1">
+        <f t="shared" si="1"/>
+        <v>40175</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_D6p 22'd40175</v>
+      </c>
+      <c r="M22">
+        <v>64</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd64: note = `note_D6p;</v>
+      </c>
+      <c r="O22" t="str">
         <f t="shared" si="0"/>
-        <v>40175</v>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_D6p 22'd40175</v>
-      </c>
-      <c r="M22">
-        <v>20</v>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd20: note = `note_D6p;</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15">
       <c r="C23">
         <v>100000000</v>
       </c>
@@ -1921,22 +2054,26 @@
         <v>123</v>
       </c>
       <c r="J23" s="1">
+        <f t="shared" si="1"/>
+        <v>42565</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_D6 22'd42565</v>
+      </c>
+      <c r="M23">
+        <v>63</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd63: note = `note_D6;</v>
+      </c>
+      <c r="O23" t="str">
         <f t="shared" si="0"/>
-        <v>42565</v>
-      </c>
-      <c r="K23" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_D6 22'd42565</v>
-      </c>
-      <c r="M23">
-        <v>21</v>
-      </c>
-      <c r="N23" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd21: note = `note_D6;</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+        <v>3F</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15">
       <c r="C24">
         <v>100000000</v>
       </c>
@@ -1956,22 +2093,26 @@
         <v>123</v>
       </c>
       <c r="J24" s="1">
+        <f t="shared" si="1"/>
+        <v>45096</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_C6p 22'd45096</v>
+      </c>
+      <c r="M24">
+        <v>62</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd62: note = `note_C6p;</v>
+      </c>
+      <c r="O24" t="str">
         <f t="shared" si="0"/>
-        <v>45096</v>
-      </c>
-      <c r="K24" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_C6p 22'd45096</v>
-      </c>
-      <c r="M24">
-        <v>22</v>
-      </c>
-      <c r="N24" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd22: note = `note_C6p;</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+        <v>3E</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15">
       <c r="C25">
         <v>100000000</v>
       </c>
@@ -1991,22 +2132,26 @@
         <v>123</v>
       </c>
       <c r="J25" s="1">
+        <f t="shared" si="1"/>
+        <v>47777</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_C6 22'd47777</v>
+      </c>
+      <c r="M25">
+        <v>61</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd61: note = `note_C6;</v>
+      </c>
+      <c r="O25" t="str">
         <f t="shared" si="0"/>
-        <v>47777</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_C6 22'd47777</v>
-      </c>
-      <c r="M25">
-        <v>23</v>
-      </c>
-      <c r="N25" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd23: note = `note_C6;</v>
-      </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+        <v>3D</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15">
       <c r="C26">
         <v>100000000</v>
       </c>
@@ -2026,22 +2171,26 @@
         <v>123</v>
       </c>
       <c r="J26" s="1">
+        <f t="shared" si="1"/>
+        <v>50618</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_B5 22'd50618</v>
+      </c>
+      <c r="M26">
+        <v>60</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd60: note = `note_B5;</v>
+      </c>
+      <c r="O26" t="str">
         <f t="shared" si="0"/>
-        <v>50618</v>
-      </c>
-      <c r="K26" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_B5 22'd50618</v>
-      </c>
-      <c r="M26">
-        <v>24</v>
-      </c>
-      <c r="N26" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd24: note = `note_B5;</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+        <v>3C</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15">
       <c r="C27">
         <v>100000000</v>
       </c>
@@ -2061,22 +2210,26 @@
         <v>123</v>
       </c>
       <c r="J27" s="1">
+        <f t="shared" si="1"/>
+        <v>53628</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_A5p 22'd53628</v>
+      </c>
+      <c r="M27">
+        <v>59</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd59: note = `note_A5p;</v>
+      </c>
+      <c r="O27" t="str">
         <f t="shared" si="0"/>
-        <v>53628</v>
-      </c>
-      <c r="K27" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_A5p 22'd53628</v>
-      </c>
-      <c r="M27">
-        <v>25</v>
-      </c>
-      <c r="N27" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd25: note = `note_A5p;</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+        <v>3B</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15">
       <c r="C28">
         <v>100000000</v>
       </c>
@@ -2096,22 +2249,26 @@
         <v>123</v>
       </c>
       <c r="J28" s="1">
+        <f t="shared" si="1"/>
+        <v>56817</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_A5 22'd56817</v>
+      </c>
+      <c r="M28">
+        <v>58</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd58: note = `note_A5;</v>
+      </c>
+      <c r="O28" t="str">
         <f t="shared" si="0"/>
-        <v>56817</v>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_A5 22'd56817</v>
-      </c>
-      <c r="M28">
-        <v>26</v>
-      </c>
-      <c r="N28" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd26: note = `note_A5;</v>
-      </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+        <v>3A</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15">
       <c r="C29">
         <v>100000000</v>
       </c>
@@ -2131,22 +2288,26 @@
         <v>123</v>
       </c>
       <c r="J29" s="1">
+        <f t="shared" si="1"/>
+        <v>60196</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_G5p 22'd60196</v>
+      </c>
+      <c r="M29">
+        <v>57</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd57: note = `note_G5p;</v>
+      </c>
+      <c r="O29" t="str">
         <f t="shared" si="0"/>
-        <v>60196</v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_G5p 22'd60196</v>
-      </c>
-      <c r="M29">
-        <v>27</v>
-      </c>
-      <c r="N29" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd27: note = `note_G5p;</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15">
       <c r="C30">
         <v>100000000</v>
       </c>
@@ -2166,22 +2327,26 @@
         <v>123</v>
       </c>
       <c r="J30" s="1">
+        <f t="shared" si="1"/>
+        <v>63775</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_G5 22'd63775</v>
+      </c>
+      <c r="M30">
+        <v>56</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd56: note = `note_G5;</v>
+      </c>
+      <c r="O30" t="str">
         <f t="shared" si="0"/>
-        <v>63775</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_G5 22'd63775</v>
-      </c>
-      <c r="M30">
-        <v>28</v>
-      </c>
-      <c r="N30" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd28: note = `note_G5;</v>
-      </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15">
       <c r="C31">
         <v>100000000</v>
       </c>
@@ -2201,22 +2366,26 @@
         <v>123</v>
       </c>
       <c r="J31" s="1">
+        <f t="shared" si="1"/>
+        <v>67568</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_F5p 22'd67568</v>
+      </c>
+      <c r="M31">
+        <v>55</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd55: note = `note_F5p;</v>
+      </c>
+      <c r="O31" t="str">
         <f t="shared" si="0"/>
-        <v>67568</v>
-      </c>
-      <c r="K31" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_F5p 22'd67568</v>
-      </c>
-      <c r="M31">
-        <v>29</v>
-      </c>
-      <c r="N31" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd29: note = `note_F5p;</v>
-      </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15">
       <c r="C32">
         <v>100000000</v>
       </c>
@@ -2236,22 +2405,26 @@
         <v>123</v>
       </c>
       <c r="J32" s="1">
+        <f t="shared" si="1"/>
+        <v>71585</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_F5 22'd71585</v>
+      </c>
+      <c r="M32">
+        <v>54</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd54: note = `note_F5;</v>
+      </c>
+      <c r="O32" t="str">
         <f t="shared" si="0"/>
-        <v>71585</v>
-      </c>
-      <c r="K32" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_F5 22'd71585</v>
-      </c>
-      <c r="M32">
-        <v>30</v>
-      </c>
-      <c r="N32" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd30: note = `note_F5;</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15">
       <c r="C33">
         <v>100000000</v>
       </c>
@@ -2271,22 +2444,26 @@
         <v>123</v>
       </c>
       <c r="J33" s="1">
+        <f t="shared" si="1"/>
+        <v>75842</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_E5 22'd75842</v>
+      </c>
+      <c r="M33">
+        <v>53</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd53: note = `note_E5;</v>
+      </c>
+      <c r="O33" t="str">
         <f t="shared" si="0"/>
-        <v>75842</v>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_E5 22'd75842</v>
-      </c>
-      <c r="M33">
-        <v>31</v>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd31: note = `note_E5;</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15">
       <c r="C34">
         <v>100000000</v>
       </c>
@@ -2306,22 +2483,26 @@
         <v>123</v>
       </c>
       <c r="J34" s="1">
+        <f t="shared" si="1"/>
+        <v>80352</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_D5p 22'd80352</v>
+      </c>
+      <c r="M34">
+        <v>52</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd52: note = `note_D5p;</v>
+      </c>
+      <c r="O34" t="str">
         <f t="shared" si="0"/>
-        <v>80352</v>
-      </c>
-      <c r="K34" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_D5p 22'd80352</v>
-      </c>
-      <c r="M34">
-        <v>32</v>
-      </c>
-      <c r="N34" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd32: note = `note_D5p;</v>
-      </c>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15">
       <c r="C35">
         <v>100000000</v>
       </c>
@@ -2341,22 +2522,26 @@
         <v>123</v>
       </c>
       <c r="J35" s="1">
+        <f t="shared" si="1"/>
+        <v>85130</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_D5 22'd85130</v>
+      </c>
+      <c r="M35">
+        <v>51</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd51: note = `note_D5;</v>
+      </c>
+      <c r="O35" t="str">
         <f t="shared" si="0"/>
-        <v>85130</v>
-      </c>
-      <c r="K35" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_D5 22'd85130</v>
-      </c>
-      <c r="M35">
         <v>33</v>
       </c>
-      <c r="N35" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd33: note = `note_D5;</v>
-      </c>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="3:15">
       <c r="C36">
         <v>100000000</v>
       </c>
@@ -2376,22 +2561,26 @@
         <v>123</v>
       </c>
       <c r="J36" s="1">
+        <f t="shared" si="1"/>
+        <v>90192</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_C5p 22'd90192</v>
+      </c>
+      <c r="M36">
+        <v>50</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd50: note = `note_C5p;</v>
+      </c>
+      <c r="O36" t="str">
         <f t="shared" si="0"/>
-        <v>90192</v>
-      </c>
-      <c r="K36" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_C5p 22'd90192</v>
-      </c>
-      <c r="M36">
-        <v>34</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd34: note = `note_C5p;</v>
-      </c>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15">
       <c r="C37">
         <v>100000000</v>
       </c>
@@ -2411,22 +2600,26 @@
         <v>123</v>
       </c>
       <c r="J37" s="1">
+        <f t="shared" si="1"/>
+        <v>95555</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_C5 22'd95555</v>
+      </c>
+      <c r="M37">
+        <v>49</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd49: note = `note_C5;</v>
+      </c>
+      <c r="O37" t="str">
         <f t="shared" si="0"/>
-        <v>95555</v>
-      </c>
-      <c r="K37" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_C5 22'd95555</v>
-      </c>
-      <c r="M37">
-        <v>35</v>
-      </c>
-      <c r="N37" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd35: note = `note_C5;</v>
-      </c>
-    </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15">
       <c r="C38">
         <v>100000000</v>
       </c>
@@ -2446,22 +2639,26 @@
         <v>123</v>
       </c>
       <c r="J38" s="1">
+        <f t="shared" si="1"/>
+        <v>101238</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_B4 22'd101238</v>
+      </c>
+      <c r="M38">
+        <v>48</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd48: note = `note_B4;</v>
+      </c>
+      <c r="O38" t="str">
         <f t="shared" si="0"/>
-        <v>101238</v>
-      </c>
-      <c r="K38" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_B4 22'd101238</v>
-      </c>
-      <c r="M38">
-        <v>36</v>
-      </c>
-      <c r="N38" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd36: note = `note_B4;</v>
-      </c>
-    </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15">
       <c r="C39">
         <v>100000000</v>
       </c>
@@ -2481,22 +2678,26 @@
         <v>123</v>
       </c>
       <c r="J39" s="1">
+        <f t="shared" si="1"/>
+        <v>107257</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_A4p 22'd107257</v>
+      </c>
+      <c r="M39">
+        <v>47</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd47: note = `note_A4p;</v>
+      </c>
+      <c r="O39" t="str">
         <f t="shared" si="0"/>
-        <v>107257</v>
-      </c>
-      <c r="K39" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_A4p 22'd107257</v>
-      </c>
-      <c r="M39">
-        <v>37</v>
-      </c>
-      <c r="N39" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd37: note = `note_A4p;</v>
-      </c>
-    </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+        <v>2F</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15">
       <c r="C40">
         <v>100000000</v>
       </c>
@@ -2516,22 +2717,26 @@
         <v>123</v>
       </c>
       <c r="J40" s="1">
+        <f t="shared" si="1"/>
+        <v>113635</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_A4 22'd113635</v>
+      </c>
+      <c r="M40">
+        <v>46</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd46: note = `note_A4;</v>
+      </c>
+      <c r="O40" t="str">
         <f t="shared" si="0"/>
-        <v>113635</v>
-      </c>
-      <c r="K40" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_A4 22'd113635</v>
-      </c>
-      <c r="M40">
-        <v>38</v>
-      </c>
-      <c r="N40" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd38: note = `note_A4;</v>
-      </c>
-    </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+        <v>2E</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15">
       <c r="C41">
         <v>100000000</v>
       </c>
@@ -2551,22 +2756,26 @@
         <v>123</v>
       </c>
       <c r="J41" s="1">
+        <f t="shared" si="1"/>
+        <v>120392</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_G4p 22'd120392</v>
+      </c>
+      <c r="M41">
+        <v>45</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd45: note = `note_G4p;</v>
+      </c>
+      <c r="O41" t="str">
         <f t="shared" si="0"/>
-        <v>120392</v>
-      </c>
-      <c r="K41" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_G4p 22'd120392</v>
-      </c>
-      <c r="M41">
-        <v>39</v>
-      </c>
-      <c r="N41" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd39: note = `note_G4p;</v>
-      </c>
-    </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+        <v>2D</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15">
       <c r="C42">
         <v>100000000</v>
       </c>
@@ -2586,22 +2795,26 @@
         <v>123</v>
       </c>
       <c r="J42" s="1">
+        <f t="shared" si="1"/>
+        <v>127552</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_G4 22'd127552</v>
+      </c>
+      <c r="M42">
+        <v>44</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd44: note = `note_G4;</v>
+      </c>
+      <c r="O42" t="str">
         <f t="shared" si="0"/>
-        <v>127552</v>
-      </c>
-      <c r="K42" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_G4 22'd127552</v>
-      </c>
-      <c r="M42">
-        <v>40</v>
-      </c>
-      <c r="N42" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd40: note = `note_G4;</v>
-      </c>
-    </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+        <v>2C</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15">
       <c r="C43">
         <v>100000000</v>
       </c>
@@ -2621,22 +2834,26 @@
         <v>123</v>
       </c>
       <c r="J43" s="1">
+        <f t="shared" si="1"/>
+        <v>135136</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_F4p 22'd135136</v>
+      </c>
+      <c r="M43">
+        <v>43</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd43: note = `note_F4p;</v>
+      </c>
+      <c r="O43" t="str">
         <f t="shared" si="0"/>
-        <v>135136</v>
-      </c>
-      <c r="K43" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_F4p 22'd135136</v>
-      </c>
-      <c r="M43">
-        <v>41</v>
-      </c>
-      <c r="N43" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd41: note = `note_F4p;</v>
-      </c>
-    </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+        <v>2B</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15">
       <c r="C44">
         <v>100000000</v>
       </c>
@@ -2656,22 +2873,26 @@
         <v>123</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>143172</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>`define note_F4 22'd143172</v>
       </c>
       <c r="M44">
         <v>42</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd42: note = `note_F4;</v>
-      </c>
-    </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>8'd42: note = `note_F4;</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="0"/>
+        <v>2A</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15">
       <c r="C45">
         <v>100000000</v>
       </c>
@@ -2691,22 +2912,26 @@
         <v>123</v>
       </c>
       <c r="J45" s="1">
+        <f t="shared" si="1"/>
+        <v>151685</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_E4 22'd151685</v>
+      </c>
+      <c r="M45">
+        <v>41</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd41: note = `note_E4;</v>
+      </c>
+      <c r="O45" t="str">
         <f t="shared" si="0"/>
-        <v>151685</v>
-      </c>
-      <c r="K45" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_E4 22'd151685</v>
-      </c>
-      <c r="M45">
-        <v>43</v>
-      </c>
-      <c r="N45" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd43: note = `note_E4;</v>
-      </c>
-    </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15">
       <c r="C46">
         <v>100000000</v>
       </c>
@@ -2726,22 +2951,26 @@
         <v>123</v>
       </c>
       <c r="J46" s="1">
+        <f t="shared" si="1"/>
+        <v>160705</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_D4p 22'd160705</v>
+      </c>
+      <c r="M46">
+        <v>40</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd40: note = `note_D4p;</v>
+      </c>
+      <c r="O46" t="str">
         <f t="shared" si="0"/>
-        <v>160705</v>
-      </c>
-      <c r="K46" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_D4p 22'd160705</v>
-      </c>
-      <c r="M46">
-        <v>44</v>
-      </c>
-      <c r="N46" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd44: note = `note_D4p;</v>
-      </c>
-    </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15">
       <c r="C47">
         <v>100000000</v>
       </c>
@@ -2761,22 +2990,26 @@
         <v>123</v>
       </c>
       <c r="J47" s="1">
+        <f t="shared" si="1"/>
+        <v>170261</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_D4 22'd170261</v>
+      </c>
+      <c r="M47">
+        <v>39</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd39: note = `note_D4;</v>
+      </c>
+      <c r="O47" t="str">
         <f t="shared" si="0"/>
-        <v>170261</v>
-      </c>
-      <c r="K47" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_D4 22'd170261</v>
-      </c>
-      <c r="M47">
-        <v>45</v>
-      </c>
-      <c r="N47" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd45: note = `note_D4;</v>
-      </c>
-    </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15">
       <c r="C48">
         <v>100000000</v>
       </c>
@@ -2796,22 +3029,26 @@
         <v>123</v>
       </c>
       <c r="J48" s="1">
+        <f t="shared" si="1"/>
+        <v>180385</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_C4p 22'd180385</v>
+      </c>
+      <c r="M48">
+        <v>38</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd38: note = `note_C4p;</v>
+      </c>
+      <c r="O48" t="str">
         <f t="shared" si="0"/>
-        <v>180385</v>
-      </c>
-      <c r="K48" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_C4p 22'd180385</v>
-      </c>
-      <c r="M48">
-        <v>46</v>
-      </c>
-      <c r="N48" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd46: note = `note_C4p;</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15">
       <c r="C49">
         <v>100000000</v>
       </c>
@@ -2831,22 +3068,26 @@
         <v>123</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>191112</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>`define note_C4 22'd191112</v>
       </c>
       <c r="M49">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd47: note = `note_C4;</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>8'd37: note = `note_C4;</v>
+      </c>
+      <c r="O49" t="str">
+        <f>DEC2HEX(M49)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15">
       <c r="C50">
         <v>100000000</v>
       </c>
@@ -2866,22 +3107,26 @@
         <v>123</v>
       </c>
       <c r="J50" s="1">
+        <f t="shared" si="1"/>
+        <v>202476</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_B3 22'd202476</v>
+      </c>
+      <c r="M50">
+        <v>36</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd36: note = `note_B3;</v>
+      </c>
+      <c r="O50" t="str">
         <f t="shared" si="0"/>
-        <v>202476</v>
-      </c>
-      <c r="K50" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_B3 22'd202476</v>
-      </c>
-      <c r="M50">
-        <v>48</v>
-      </c>
-      <c r="N50" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd48: note = `note_B3;</v>
-      </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15">
       <c r="C51">
         <v>100000000</v>
       </c>
@@ -2901,22 +3146,26 @@
         <v>123</v>
       </c>
       <c r="J51" s="1">
+        <f t="shared" si="1"/>
+        <v>214516</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_A3p 22'd214516</v>
+      </c>
+      <c r="M51">
+        <v>35</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd35: note = `note_A3p;</v>
+      </c>
+      <c r="O51" t="str">
         <f t="shared" si="0"/>
-        <v>214516</v>
-      </c>
-      <c r="K51" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_A3p 22'd214516</v>
-      </c>
-      <c r="M51">
-        <v>49</v>
-      </c>
-      <c r="N51" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd49: note = `note_A3p;</v>
-      </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15">
       <c r="C52">
         <v>100000000</v>
       </c>
@@ -2936,22 +3185,26 @@
         <v>123</v>
       </c>
       <c r="J52" s="1">
+        <f t="shared" si="1"/>
+        <v>227272</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_A3 22'd227272</v>
+      </c>
+      <c r="M52">
+        <v>34</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd34: note = `note_A3;</v>
+      </c>
+      <c r="O52" t="str">
         <f t="shared" si="0"/>
-        <v>227272</v>
-      </c>
-      <c r="K52" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_A3 22'd227272</v>
-      </c>
-      <c r="M52">
-        <v>50</v>
-      </c>
-      <c r="N52" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd50: note = `note_A3;</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15">
       <c r="C53">
         <v>100000000</v>
       </c>
@@ -2971,22 +3224,26 @@
         <v>123</v>
       </c>
       <c r="J53" s="1">
+        <f t="shared" si="1"/>
+        <v>240786</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_G3p 22'd240786</v>
+      </c>
+      <c r="M53">
+        <v>33</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd33: note = `note_G3p;</v>
+      </c>
+      <c r="O53" t="str">
         <f t="shared" si="0"/>
-        <v>240786</v>
-      </c>
-      <c r="K53" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_G3p 22'd240786</v>
-      </c>
-      <c r="M53">
-        <v>51</v>
-      </c>
-      <c r="N53" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd51: note = `note_G3p;</v>
-      </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15">
       <c r="C54">
         <v>100000000</v>
       </c>
@@ -3006,22 +3263,26 @@
         <v>123</v>
       </c>
       <c r="J54" s="1">
+        <f t="shared" si="1"/>
+        <v>255104</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_G3 22'd255104</v>
+      </c>
+      <c r="M54">
+        <v>32</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd32: note = `note_G3;</v>
+      </c>
+      <c r="O54" t="str">
         <f t="shared" si="0"/>
-        <v>255104</v>
-      </c>
-      <c r="K54" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_G3 22'd255104</v>
-      </c>
-      <c r="M54">
-        <v>52</v>
-      </c>
-      <c r="N54" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd52: note = `note_G3;</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15">
       <c r="C55">
         <v>100000000</v>
       </c>
@@ -3041,22 +3302,26 @@
         <v>123</v>
       </c>
       <c r="J55" s="1">
+        <f t="shared" si="1"/>
+        <v>270274</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_F3p 22'd270274</v>
+      </c>
+      <c r="M55">
+        <v>31</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd31: note = `note_F3p;</v>
+      </c>
+      <c r="O55" t="str">
         <f t="shared" si="0"/>
-        <v>270274</v>
-      </c>
-      <c r="K55" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_F3p 22'd270274</v>
-      </c>
-      <c r="M55">
-        <v>53</v>
-      </c>
-      <c r="N55" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd53: note = `note_F3p;</v>
-      </c>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.25">
+        <v>1F</v>
+      </c>
+    </row>
+    <row r="56" spans="3:15">
       <c r="C56">
         <v>100000000</v>
       </c>
@@ -3076,22 +3341,26 @@
         <v>123</v>
       </c>
       <c r="J56" s="1">
+        <f t="shared" si="1"/>
+        <v>286345</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_F3 22'd286345</v>
+      </c>
+      <c r="M56">
+        <v>30</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd30: note = `note_F3;</v>
+      </c>
+      <c r="O56" t="str">
         <f t="shared" si="0"/>
-        <v>286345</v>
-      </c>
-      <c r="K56" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_F3 22'd286345</v>
-      </c>
-      <c r="M56">
-        <v>54</v>
-      </c>
-      <c r="N56" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd54: note = `note_F3;</v>
-      </c>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.25">
+        <v>1E</v>
+      </c>
+    </row>
+    <row r="57" spans="3:15">
       <c r="C57">
         <v>100000000</v>
       </c>
@@ -3111,22 +3380,26 @@
         <v>123</v>
       </c>
       <c r="J57" s="1">
+        <f t="shared" si="1"/>
+        <v>303371</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_E3 22'd303371</v>
+      </c>
+      <c r="M57">
+        <v>29</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd29: note = `note_E3;</v>
+      </c>
+      <c r="O57" t="str">
         <f t="shared" si="0"/>
-        <v>303371</v>
-      </c>
-      <c r="K57" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_E3 22'd303371</v>
-      </c>
-      <c r="M57">
-        <v>55</v>
-      </c>
-      <c r="N57" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd55: note = `note_E3;</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.25">
+        <v>1D</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15">
       <c r="C58">
         <v>100000000</v>
       </c>
@@ -3146,22 +3419,26 @@
         <v>123</v>
       </c>
       <c r="J58" s="1">
+        <f t="shared" si="1"/>
+        <v>321412</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_D3p 22'd321412</v>
+      </c>
+      <c r="M58">
+        <v>28</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd28: note = `note_D3p;</v>
+      </c>
+      <c r="O58" t="str">
         <f t="shared" si="0"/>
-        <v>321412</v>
-      </c>
-      <c r="K58" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_D3p 22'd321412</v>
-      </c>
-      <c r="M58">
-        <v>56</v>
-      </c>
-      <c r="N58" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd56: note = `note_D3p;</v>
-      </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.25">
+        <v>1C</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15">
       <c r="C59">
         <v>100000000</v>
       </c>
@@ -3181,22 +3458,26 @@
         <v>123</v>
       </c>
       <c r="J59" s="1">
+        <f t="shared" si="1"/>
+        <v>340524</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_D3 22'd340524</v>
+      </c>
+      <c r="M59">
+        <v>27</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd27: note = `note_D3;</v>
+      </c>
+      <c r="O59" t="str">
         <f t="shared" si="0"/>
-        <v>340524</v>
-      </c>
-      <c r="K59" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_D3 22'd340524</v>
-      </c>
-      <c r="M59">
-        <v>57</v>
-      </c>
-      <c r="N59" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd57: note = `note_D3;</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.25">
+        <v>1B</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15">
       <c r="C60">
         <v>100000000</v>
       </c>
@@ -3216,22 +3497,26 @@
         <v>123</v>
       </c>
       <c r="J60" s="1">
+        <f t="shared" si="1"/>
+        <v>360773</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_C3p 22'd360773</v>
+      </c>
+      <c r="M60">
+        <v>26</v>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd26: note = `note_C3p;</v>
+      </c>
+      <c r="O60" t="str">
         <f t="shared" si="0"/>
-        <v>360773</v>
-      </c>
-      <c r="K60" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_C3p 22'd360773</v>
-      </c>
-      <c r="M60">
-        <v>58</v>
-      </c>
-      <c r="N60" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd58: note = `note_C3p;</v>
-      </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
+        <v>1A</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15">
       <c r="C61">
         <v>100000000</v>
       </c>
@@ -3251,22 +3536,26 @@
         <v>123</v>
       </c>
       <c r="J61" s="1">
+        <f t="shared" si="1"/>
+        <v>382224</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_C3 22'd382224</v>
+      </c>
+      <c r="M61">
+        <v>25</v>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd25: note = `note_C3;</v>
+      </c>
+      <c r="O61" t="str">
         <f t="shared" si="0"/>
-        <v>382224</v>
-      </c>
-      <c r="K61" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_C3 22'd382224</v>
-      </c>
-      <c r="M61">
-        <v>59</v>
-      </c>
-      <c r="N61" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd59: note = `note_C3;</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15">
       <c r="C62">
         <v>100000000</v>
       </c>
@@ -3286,22 +3575,26 @@
         <v>123</v>
       </c>
       <c r="J62" s="1">
+        <f t="shared" si="1"/>
+        <v>404952</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_B2 22'd404952</v>
+      </c>
+      <c r="M62">
+        <v>24</v>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd24: note = `note_B2;</v>
+      </c>
+      <c r="O62" t="str">
         <f t="shared" si="0"/>
-        <v>404952</v>
-      </c>
-      <c r="K62" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_B2 22'd404952</v>
-      </c>
-      <c r="M62">
-        <v>60</v>
-      </c>
-      <c r="N62" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd60: note = `note_B2;</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15">
       <c r="C63">
         <v>100000000</v>
       </c>
@@ -3321,22 +3614,26 @@
         <v>123</v>
       </c>
       <c r="J63" s="1">
+        <f t="shared" si="1"/>
+        <v>429033</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_A2p 22'd429033</v>
+      </c>
+      <c r="M63">
+        <v>23</v>
+      </c>
+      <c r="N63" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd23: note = `note_A2p;</v>
+      </c>
+      <c r="O63" t="str">
         <f t="shared" si="0"/>
-        <v>429033</v>
-      </c>
-      <c r="K63" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_A2p 22'd429033</v>
-      </c>
-      <c r="M63">
-        <v>61</v>
-      </c>
-      <c r="N63" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd61: note = `note_A2p;</v>
-      </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15">
       <c r="C64">
         <v>100000000</v>
       </c>
@@ -3356,22 +3653,26 @@
         <v>123</v>
       </c>
       <c r="J64" s="1">
+        <f t="shared" si="1"/>
+        <v>454544</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_A2 22'd454544</v>
+      </c>
+      <c r="M64">
+        <v>22</v>
+      </c>
+      <c r="N64" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd22: note = `note_A2;</v>
+      </c>
+      <c r="O64" t="str">
         <f t="shared" si="0"/>
-        <v>454544</v>
-      </c>
-      <c r="K64" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_A2 22'd454544</v>
-      </c>
-      <c r="M64">
-        <v>62</v>
-      </c>
-      <c r="N64" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd62: note = `note_A2;</v>
-      </c>
-    </row>
-    <row r="65" spans="3:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="3:15">
       <c r="C65">
         <v>100000000</v>
       </c>
@@ -3391,22 +3692,26 @@
         <v>123</v>
       </c>
       <c r="J65" s="1">
+        <f t="shared" si="1"/>
+        <v>481574</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="2"/>
+        <v>`define note_G2p 22'd481574</v>
+      </c>
+      <c r="M65">
+        <v>21</v>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" si="3"/>
+        <v>8'd21: note = `note_G2p;</v>
+      </c>
+      <c r="O65" t="str">
         <f t="shared" si="0"/>
-        <v>481574</v>
-      </c>
-      <c r="K65" t="str">
-        <f t="shared" si="1"/>
-        <v>`define note_G2p 22'd481574</v>
-      </c>
-      <c r="M65">
-        <v>63</v>
-      </c>
-      <c r="N65" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd63: note = `note_G2p;</v>
-      </c>
-    </row>
-    <row r="66" spans="3:14" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="3:15">
       <c r="C66">
         <v>100000000</v>
       </c>
@@ -3426,22 +3731,26 @@
         <v>123</v>
       </c>
       <c r="J66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>510209</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>`define note_G2 22'd510209</v>
       </c>
       <c r="M66">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="2"/>
-        <v>7'd64: note = `note_G2;</v>
-      </c>
-    </row>
-    <row r="67" spans="3:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>8'd20: note = `note_G2;</v>
+      </c>
+      <c r="O66" t="str">
+        <f t="shared" ref="O66:O85" si="4">DEC2HEX(M66)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="3:15">
       <c r="C67">
         <v>100000000</v>
       </c>
@@ -3461,22 +3770,26 @@
         <v>123</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" ref="J67:J85" si="3">ROUND(C67/E67/2-1, 0)</f>
+        <f t="shared" ref="J67:J85" si="5">ROUND(C67/E67/2-1, 0)</f>
         <v>540548</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" ref="K67:K85" si="4">CONCATENATE(G67, "note_", H67,  " ", I67, J67)</f>
+        <f t="shared" ref="K67:K85" si="6">CONCATENATE(G67, "note_", H67,  " ", I67, J67)</f>
         <v>`define note_F2p 22'd540548</v>
       </c>
       <c r="M67">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" ref="N67:N85" si="5">CONCATENATE("7'd", M67, ": note = `note_", H67, ";")</f>
-        <v>7'd65: note = `note_F2p;</v>
-      </c>
-    </row>
-    <row r="68" spans="3:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N67:N85" si="7">CONCATENATE("8'd", M67, ": note = `note_", H67, ";")</f>
+        <v>8'd19: note = `note_F2p;</v>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="3:15">
       <c r="C68">
         <v>100000000</v>
       </c>
@@ -3496,22 +3809,26 @@
         <v>123</v>
       </c>
       <c r="J68" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>572690</v>
       </c>
       <c r="K68" t="str">
+        <f t="shared" si="6"/>
+        <v>`define note_F2 22'd572690</v>
+      </c>
+      <c r="M68">
+        <v>18</v>
+      </c>
+      <c r="N68" t="str">
+        <f t="shared" si="7"/>
+        <v>8'd18: note = `note_F2;</v>
+      </c>
+      <c r="O68" t="str">
         <f t="shared" si="4"/>
-        <v>`define note_F2 22'd572690</v>
-      </c>
-      <c r="M68">
-        <v>66</v>
-      </c>
-      <c r="N68" t="str">
-        <f t="shared" si="5"/>
-        <v>7'd66: note = `note_F2;</v>
-      </c>
-    </row>
-    <row r="69" spans="3:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="3:15">
       <c r="C69">
         <v>100000000</v>
       </c>
@@ -3531,22 +3848,26 @@
         <v>123</v>
       </c>
       <c r="J69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>606744</v>
       </c>
       <c r="K69" t="str">
+        <f t="shared" si="6"/>
+        <v>`define note_E2 22'd606744</v>
+      </c>
+      <c r="M69">
+        <v>17</v>
+      </c>
+      <c r="N69" t="str">
+        <f t="shared" si="7"/>
+        <v>8'd17: note = `note_E2;</v>
+      </c>
+      <c r="O69" t="str">
         <f t="shared" si="4"/>
-        <v>`define note_E2 22'd606744</v>
-      </c>
-      <c r="M69">
-        <v>67</v>
-      </c>
-      <c r="N69" t="str">
-        <f t="shared" si="5"/>
-        <v>7'd67: note = `note_E2;</v>
-      </c>
-    </row>
-    <row r="70" spans="3:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="3:15">
       <c r="C70">
         <v>100000000</v>
       </c>
@@ -3566,22 +3887,26 @@
         <v>123</v>
       </c>
       <c r="J70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>642824</v>
       </c>
       <c r="K70" t="str">
+        <f t="shared" si="6"/>
+        <v>`define note_D2p 22'd642824</v>
+      </c>
+      <c r="M70">
+        <v>16</v>
+      </c>
+      <c r="N70" t="str">
+        <f t="shared" si="7"/>
+        <v>8'd16: note = `note_D2p;</v>
+      </c>
+      <c r="O70" t="str">
         <f t="shared" si="4"/>
-        <v>`define note_D2p 22'd642824</v>
-      </c>
-      <c r="M70">
-        <v>68</v>
-      </c>
-      <c r="N70" t="str">
-        <f t="shared" si="5"/>
-        <v>7'd68: note = `note_D2p;</v>
-      </c>
-    </row>
-    <row r="71" spans="3:14" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="3:15">
       <c r="C71">
         <v>100000000</v>
       </c>
@@ -3601,22 +3926,26 @@
         <v>123</v>
       </c>
       <c r="J71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>681048</v>
       </c>
       <c r="K71" t="str">
+        <f t="shared" si="6"/>
+        <v>`define note_D2 22'd681048</v>
+      </c>
+      <c r="M71">
+        <v>15</v>
+      </c>
+      <c r="N71" t="str">
+        <f t="shared" si="7"/>
+        <v>8'd15: note = `note_D2;</v>
+      </c>
+      <c r="O71" t="str">
         <f t="shared" si="4"/>
-        <v>`define note_D2 22'd681048</v>
-      </c>
-      <c r="M71">
-        <v>69</v>
-      </c>
-      <c r="N71" t="str">
-        <f t="shared" si="5"/>
-        <v>7'd69: note = `note_D2;</v>
-      </c>
-    </row>
-    <row r="72" spans="3:14" x14ac:dyDescent="0.25">
+        <v>F</v>
+      </c>
+    </row>
+    <row r="72" spans="3:15">
       <c r="C72">
         <v>100000000</v>
       </c>
@@ -3636,22 +3965,26 @@
         <v>123</v>
       </c>
       <c r="J72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>721544</v>
       </c>
       <c r="K72" t="str">
+        <f t="shared" si="6"/>
+        <v>`define note_C2p 22'd721544</v>
+      </c>
+      <c r="M72">
+        <v>14</v>
+      </c>
+      <c r="N72" t="str">
+        <f t="shared" si="7"/>
+        <v>8'd14: note = `note_C2p;</v>
+      </c>
+      <c r="O72" t="str">
         <f t="shared" si="4"/>
-        <v>`define note_C2p 22'd721544</v>
-      </c>
-      <c r="M72">
-        <v>70</v>
-      </c>
-      <c r="N72" t="str">
-        <f t="shared" si="5"/>
-        <v>7'd70: note = `note_C2p;</v>
-      </c>
-    </row>
-    <row r="73" spans="3:14" x14ac:dyDescent="0.25">
+        <v>E</v>
+      </c>
+    </row>
+    <row r="73" spans="3:15">
       <c r="C73">
         <v>100000000</v>
       </c>
@@ -3671,22 +4004,26 @@
         <v>123</v>
       </c>
       <c r="J73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>764450</v>
       </c>
       <c r="K73" t="str">
+        <f t="shared" si="6"/>
+        <v>`define note_C2 22'd764450</v>
+      </c>
+      <c r="M73">
+        <v>13</v>
+      </c>
+      <c r="N73" t="str">
+        <f t="shared" si="7"/>
+        <v>8'd13: note = `note_C2;</v>
+      </c>
+      <c r="O73" t="str">
         <f t="shared" si="4"/>
-        <v>`define note_C2 22'd764450</v>
-      </c>
-      <c r="M73">
-        <v>71</v>
-      </c>
-      <c r="N73" t="str">
-        <f t="shared" si="5"/>
-        <v>7'd71: note = `note_C2;</v>
-      </c>
-    </row>
-    <row r="74" spans="3:14" x14ac:dyDescent="0.25">
+        <v>D</v>
+      </c>
+    </row>
+    <row r="74" spans="3:15">
       <c r="C74">
         <v>100000000</v>
       </c>
@@ -3706,22 +4043,26 @@
         <v>123</v>
       </c>
       <c r="J74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>809907</v>
       </c>
       <c r="K74" t="str">
+        <f t="shared" si="6"/>
+        <v>`define note_B1 22'd809907</v>
+      </c>
+      <c r="M74">
+        <v>12</v>
+      </c>
+      <c r="N74" t="str">
+        <f t="shared" si="7"/>
+        <v>8'd12: note = `note_B1;</v>
+      </c>
+      <c r="O74" t="str">
         <f t="shared" si="4"/>
-        <v>`define note_B1 22'd809907</v>
-      </c>
-      <c r="M74">
-        <v>72</v>
-      </c>
-      <c r="N74" t="str">
-        <f t="shared" si="5"/>
-        <v>7'd72: note = `note_B1;</v>
-      </c>
-    </row>
-    <row r="75" spans="3:14" x14ac:dyDescent="0.25">
+        <v>C</v>
+      </c>
+    </row>
+    <row r="75" spans="3:15">
       <c r="C75">
         <v>100000000</v>
       </c>
@@ -3741,22 +4082,26 @@
         <v>123</v>
       </c>
       <c r="J75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>858066</v>
       </c>
       <c r="K75" t="str">
+        <f t="shared" si="6"/>
+        <v>`define note_A1p 22'd858066</v>
+      </c>
+      <c r="M75">
+        <v>11</v>
+      </c>
+      <c r="N75" t="str">
+        <f t="shared" si="7"/>
+        <v>8'd11: note = `note_A1p;</v>
+      </c>
+      <c r="O75" t="str">
         <f t="shared" si="4"/>
-        <v>`define note_A1p 22'd858066</v>
-      </c>
-      <c r="M75">
-        <v>73</v>
-      </c>
-      <c r="N75" t="str">
-        <f t="shared" si="5"/>
-        <v>7'd73: note = `note_A1p;</v>
-      </c>
-    </row>
-    <row r="76" spans="3:14" x14ac:dyDescent="0.25">
+        <v>B</v>
+      </c>
+    </row>
+    <row r="76" spans="3:15">
       <c r="C76">
         <v>100000000</v>
       </c>
@@ -3776,22 +4121,26 @@
         <v>123</v>
       </c>
       <c r="J76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>909090</v>
       </c>
       <c r="K76" t="str">
+        <f t="shared" si="6"/>
+        <v>`define note_A1 22'd909090</v>
+      </c>
+      <c r="M76">
+        <v>10</v>
+      </c>
+      <c r="N76" t="str">
+        <f t="shared" si="7"/>
+        <v>8'd10: note = `note_A1;</v>
+      </c>
+      <c r="O76" t="str">
         <f t="shared" si="4"/>
-        <v>`define note_A1 22'd909090</v>
-      </c>
-      <c r="M76">
-        <v>74</v>
-      </c>
-      <c r="N76" t="str">
-        <f t="shared" si="5"/>
-        <v>7'd74: note = `note_A1;</v>
-      </c>
-    </row>
-    <row r="77" spans="3:14" x14ac:dyDescent="0.25">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="77" spans="3:15">
       <c r="C77">
         <v>100000000</v>
       </c>
@@ -3811,22 +4160,26 @@
         <v>123</v>
       </c>
       <c r="J77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>963147</v>
       </c>
       <c r="K77" t="str">
+        <f t="shared" si="6"/>
+        <v>`define note_G1p 22'd963147</v>
+      </c>
+      <c r="M77">
+        <v>9</v>
+      </c>
+      <c r="N77" t="str">
+        <f t="shared" si="7"/>
+        <v>8'd9: note = `note_G1p;</v>
+      </c>
+      <c r="O77" t="str">
         <f t="shared" si="4"/>
-        <v>`define note_G1p 22'd963147</v>
-      </c>
-      <c r="M77">
-        <v>75</v>
-      </c>
-      <c r="N77" t="str">
-        <f t="shared" si="5"/>
-        <v>7'd75: note = `note_G1p;</v>
-      </c>
-    </row>
-    <row r="78" spans="3:14" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="3:15">
       <c r="C78">
         <v>100000000</v>
       </c>
@@ -3846,22 +4199,26 @@
         <v>123</v>
       </c>
       <c r="J78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1020420</v>
       </c>
       <c r="K78" t="str">
+        <f t="shared" si="6"/>
+        <v>`define note_G1 22'd1020420</v>
+      </c>
+      <c r="M78">
+        <v>8</v>
+      </c>
+      <c r="N78" t="str">
+        <f t="shared" si="7"/>
+        <v>8'd8: note = `note_G1;</v>
+      </c>
+      <c r="O78" t="str">
         <f t="shared" si="4"/>
-        <v>`define note_G1 22'd1020420</v>
-      </c>
-      <c r="M78">
-        <v>76</v>
-      </c>
-      <c r="N78" t="str">
-        <f t="shared" si="5"/>
-        <v>7'd76: note = `note_G1;</v>
-      </c>
-    </row>
-    <row r="79" spans="3:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="3:15">
       <c r="C79">
         <v>100000000</v>
       </c>
@@ -3881,22 +4238,26 @@
         <v>123</v>
       </c>
       <c r="J79" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1081096</v>
       </c>
       <c r="K79" t="str">
+        <f t="shared" si="6"/>
+        <v>`define note_F1p 22'd1081096</v>
+      </c>
+      <c r="M79">
+        <v>7</v>
+      </c>
+      <c r="N79" t="str">
+        <f t="shared" si="7"/>
+        <v>8'd7: note = `note_F1p;</v>
+      </c>
+      <c r="O79" t="str">
         <f t="shared" si="4"/>
-        <v>`define note_F1p 22'd1081096</v>
-      </c>
-      <c r="M79">
-        <v>77</v>
-      </c>
-      <c r="N79" t="str">
-        <f t="shared" si="5"/>
-        <v>7'd77: note = `note_F1p;</v>
-      </c>
-    </row>
-    <row r="80" spans="3:14" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="3:15">
       <c r="C80">
         <v>100000000</v>
       </c>
@@ -3916,22 +4277,26 @@
         <v>123</v>
       </c>
       <c r="J80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1145383</v>
       </c>
       <c r="K80" t="str">
+        <f t="shared" si="6"/>
+        <v>`define note_F1 22'd1145383</v>
+      </c>
+      <c r="M80">
+        <v>6</v>
+      </c>
+      <c r="N80" t="str">
+        <f t="shared" si="7"/>
+        <v>8'd6: note = `note_F1;</v>
+      </c>
+      <c r="O80" t="str">
         <f t="shared" si="4"/>
-        <v>`define note_F1 22'd1145383</v>
-      </c>
-      <c r="M80">
-        <v>78</v>
-      </c>
-      <c r="N80" t="str">
-        <f t="shared" si="5"/>
-        <v>7'd78: note = `note_F1;</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15">
       <c r="C81">
         <v>100000000</v>
       </c>
@@ -3951,22 +4316,26 @@
         <v>123</v>
       </c>
       <c r="J81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1213491</v>
       </c>
       <c r="K81" t="str">
+        <f t="shared" si="6"/>
+        <v>`define note_E1 22'd1213491</v>
+      </c>
+      <c r="M81">
+        <v>5</v>
+      </c>
+      <c r="N81" t="str">
+        <f t="shared" si="7"/>
+        <v>8'd5: note = `note_E1;</v>
+      </c>
+      <c r="O81" t="str">
         <f t="shared" si="4"/>
-        <v>`define note_E1 22'd1213491</v>
-      </c>
-      <c r="M81">
-        <v>79</v>
-      </c>
-      <c r="N81" t="str">
-        <f t="shared" si="5"/>
-        <v>7'd79: note = `note_E1;</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15">
       <c r="C82">
         <v>100000000</v>
       </c>
@@ -3986,22 +4355,26 @@
         <v>123</v>
       </c>
       <c r="J82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1285647</v>
       </c>
       <c r="K82" t="str">
+        <f t="shared" si="6"/>
+        <v>`define note_D1p 22'd1285647</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
+      </c>
+      <c r="N82" t="str">
+        <f t="shared" si="7"/>
+        <v>8'd4: note = `note_D1p;</v>
+      </c>
+      <c r="O82" t="str">
         <f t="shared" si="4"/>
-        <v>`define note_D1p 22'd1285647</v>
-      </c>
-      <c r="M82">
-        <v>80</v>
-      </c>
-      <c r="N82" t="str">
-        <f t="shared" si="5"/>
-        <v>7'd80: note = `note_D1p;</v>
-      </c>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="3:15">
       <c r="C83">
         <v>100000000</v>
       </c>
@@ -4021,22 +4394,26 @@
         <v>123</v>
       </c>
       <c r="J83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1362096</v>
       </c>
       <c r="K83" t="str">
+        <f t="shared" si="6"/>
+        <v>`define note_D1 22'd1362096</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83" t="str">
+        <f t="shared" si="7"/>
+        <v>8'd3: note = `note_D1;</v>
+      </c>
+      <c r="O83" t="str">
         <f t="shared" si="4"/>
-        <v>`define note_D1 22'd1362096</v>
-      </c>
-      <c r="M83">
-        <v>81</v>
-      </c>
-      <c r="N83" t="str">
-        <f t="shared" si="5"/>
-        <v>7'd81: note = `note_D1;</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15">
       <c r="C84">
         <v>100000000</v>
       </c>
@@ -4056,22 +4433,26 @@
         <v>123</v>
       </c>
       <c r="J84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1443092</v>
       </c>
       <c r="K84" t="str">
+        <f t="shared" si="6"/>
+        <v>`define note_C1p 22'd1443092</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84" t="str">
+        <f t="shared" si="7"/>
+        <v>8'd2: note = `note_C1p;</v>
+      </c>
+      <c r="O84" t="str">
         <f t="shared" si="4"/>
-        <v>`define note_C1p 22'd1443092</v>
-      </c>
-      <c r="M84">
-        <v>82</v>
-      </c>
-      <c r="N84" t="str">
-        <f t="shared" si="5"/>
-        <v>7'd82: note = `note_C1p;</v>
-      </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15">
       <c r="C85">
         <v>100000000</v>
       </c>
@@ -4091,19 +4472,23 @@
         <v>123</v>
       </c>
       <c r="J85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1528901</v>
       </c>
       <c r="K85" t="str">
+        <f t="shared" si="6"/>
+        <v>`define note_C1 22'd1528901</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85" t="str">
+        <f t="shared" si="7"/>
+        <v>8'd1: note = `note_C1;</v>
+      </c>
+      <c r="O85" t="str">
         <f t="shared" si="4"/>
-        <v>`define note_C1 22'd1528901</v>
-      </c>
-      <c r="M85">
-        <v>83</v>
-      </c>
-      <c r="N85" t="str">
-        <f t="shared" si="5"/>
-        <v>7'd83: note = `note_C1;</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4115,22 +4500,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:BP93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E82" sqref="E82:L82"/>
+      <selection pane="topRight" activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36">
       <c r="E4" s="2">
         <v>0</v>
       </c>
@@ -4228,7 +4613,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>140</v>
       </c>
@@ -4259,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" s="5" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>139</v>
       </c>
@@ -4284,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
         <v>138</v>
       </c>
@@ -4297,7 +4682,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36">
       <c r="A8" s="2" t="s">
         <v>137</v>
       </c>
@@ -4310,7 +4695,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36">
       <c r="A9" s="2" t="s">
         <v>136</v>
       </c>
@@ -4323,7 +4708,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36">
       <c r="A10" s="2" t="s">
         <v>135</v>
       </c>
@@ -4336,7 +4721,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36">
       <c r="A11" s="2" t="s">
         <v>132</v>
       </c>
@@ -4349,7 +4734,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36">
       <c r="A12" s="2" t="s">
         <v>133</v>
       </c>
@@ -4362,7 +4747,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" s="5" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>134</v>
       </c>
@@ -4378,7 +4763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36">
       <c r="A14" s="2" t="s">
         <v>131</v>
       </c>
@@ -4391,7 +4776,7 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" s="5" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>130</v>
       </c>
@@ -4410,7 +4795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
         <v>129</v>
       </c>
@@ -4423,7 +4808,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" s="5" customFormat="1">
       <c r="A17" s="5" t="s">
         <v>128</v>
       </c>
@@ -4442,7 +4827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" s="5" customFormat="1">
       <c r="A18" s="5" t="s">
         <v>127</v>
       </c>
@@ -4467,7 +4852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36">
       <c r="A19" s="2" t="s">
         <v>126</v>
       </c>
@@ -4480,7 +4865,7 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" s="5" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>125</v>
       </c>
@@ -4510,15 +4895,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36">
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36">
       <c r="A25" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B25" s="8">
-        <v>7</v>
+      <c r="B25" s="41" t="s">
+        <v>154</v>
       </c>
       <c r="C25" s="8">
         <v>7</v>
@@ -4569,12 +4954,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36">
       <c r="A26" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="8">
-        <v>6</v>
+      <c r="B26" s="41" t="s">
+        <v>150</v>
       </c>
       <c r="C26" s="8">
         <v>6</v>
@@ -4621,12 +5006,12 @@
       </c>
       <c r="AJ26" s="8"/>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36">
       <c r="A27" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="8">
-        <v>5</v>
+      <c r="B27" s="41">
+        <v>25</v>
       </c>
       <c r="C27" s="8">
         <v>5</v>
@@ -4667,12 +5052,12 @@
       <c r="AI27" s="8"/>
       <c r="AJ27" s="8"/>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36">
       <c r="A28" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="8">
-        <v>4</v>
+      <c r="B28" s="41">
+        <v>23</v>
       </c>
       <c r="C28" s="8">
         <v>4</v>
@@ -4715,12 +5100,12 @@
       <c r="AI28" s="8"/>
       <c r="AJ28" s="8"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36">
       <c r="A29" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="8">
-        <v>3</v>
+      <c r="B29" s="41">
+        <v>21</v>
       </c>
       <c r="C29" s="8">
         <v>3</v>
@@ -4763,12 +5148,12 @@
       <c r="AI29" s="8"/>
       <c r="AJ29" s="8"/>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36">
       <c r="A30" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B30" s="8">
-        <v>2</v>
+      <c r="B30" s="41">
+        <v>20</v>
       </c>
       <c r="C30" s="8">
         <v>2</v>
@@ -4815,12 +5200,12 @@
       <c r="AI30" s="8"/>
       <c r="AJ30" s="8"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36">
       <c r="A31" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="8">
-        <v>1</v>
+      <c r="B31" s="41" t="s">
+        <v>153</v>
       </c>
       <c r="C31" s="8">
         <v>1</v>
@@ -4871,11 +5256,11 @@
       <c r="AI31" s="8"/>
       <c r="AJ31" s="8"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36">
       <c r="A32" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="41">
         <v>0</v>
       </c>
       <c r="C32" s="8">
@@ -4929,7 +5314,7 @@
       <c r="AI32" s="8"/>
       <c r="AJ32" s="8"/>
     </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:36">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="13"/>
@@ -4966,149 +5351,149 @@
       <c r="AI33" s="8"/>
       <c r="AJ33" s="8"/>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:36">
       <c r="D34" s="14"/>
-      <c r="E34" s="2" t="str">
-        <f t="shared" ref="E34:AJ34" si="1">CONCATENATE(IF(E25=1,$B$25,""), IF(E26=1,$B$26,""), IF(E27=1,$B$27,""), IF(E28=1,$B$28,""), IF(E29=1,$B$29,""), IF(E30=1,$B$30,""), IF(E31=1,$B$31,""), IF(E32=1,$B$32,""))</f>
-        <v>1</v>
+      <c r="E34" s="17" t="str">
+        <f>CONCATENATE(IF(E25=1,$B$25,""), IF(E26=1,$B$26,""), IF(E27=1,$B$27,""), IF(E28=1,$B$28,""), IF(E29=1,$B$29,""), IF(E30=1,$B$30,""), IF(E31=1,$B$31,""), IF(E32=1,"00", ""))</f>
+        <v>1E</v>
       </c>
       <c r="F34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="P34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="Q34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="T34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="U34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="Y34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="Z34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AA34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AB34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AC34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AG34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AH34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="AI34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AJ34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="E35" s="19" t="str">
+        <f>CONCATENATE(IF(F25=1,$B$25,""), IF(F26=1,$B$26,""), IF(F27=1,$B$27,""), IF(F28=1,$B$28,""), IF(F29=1,$B$29,""), IF(F30=1,$B$30,""), IF(F31=1,$B$31,""), IF(F32=1,"00", ""))</f>
+        <v>00</v>
+      </c>
+      <c r="G34" s="17" t="str">
+        <f t="shared" ref="G34:AJ34" si="1">CONCATENATE(IF(G25=1,$B$25,""), IF(G26=1,$B$26,""), IF(G27=1,$B$27,""), IF(G28=1,$B$28,""), IF(G29=1,$B$29,""), IF(G30=1,$B$30,""), IF(G31=1,$B$31,""), IF(G32=1,"00", ""))</f>
+        <v>1E</v>
+      </c>
+      <c r="H34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="J34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="K34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="L34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="M34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="O34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="P34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="R34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="S34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="T34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="U34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>1E</v>
+      </c>
+      <c r="V34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="W34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>1E</v>
+      </c>
+      <c r="X34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>2D</v>
+      </c>
+      <c r="Y34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>2C</v>
+      </c>
+      <c r="Z34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>2D</v>
+      </c>
+      <c r="AA34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>2C</v>
+      </c>
+      <c r="AB34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>2D</v>
+      </c>
+      <c r="AC34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>1E</v>
+      </c>
+      <c r="AD34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="AE34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>1E</v>
+      </c>
+      <c r="AF34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>2D</v>
+      </c>
+      <c r="AG34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>2C</v>
+      </c>
+      <c r="AH34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>2D</v>
+      </c>
+      <c r="AI34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>2C</v>
+      </c>
+      <c r="AJ34" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>2D</v>
+      </c>
+    </row>
+    <row r="35" spans="2:36">
+      <c r="E35" s="34" t="str">
         <f>CONCATENATE(E34, F34, G34, H34, I34, J34, K34, L34, M34, N34, O34, P34, Q34, R34, S34, T34, U34, V34, W34, X34, Y34, Z34, AA34, AB34, AC34, AD34, AE34, AF34, AG34, AH34, AI34, AJ34)</f>
-        <v>10154030202240321017676710176767</v>
-      </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
+        <v>1E001E252300210020002020230021201E001E2D2C2D2C2D1E001E2D2C2D2C2D</v>
+      </c>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
@@ -5134,142 +5519,151 @@
       <c r="AI35" s="16"/>
       <c r="AJ35" s="16"/>
     </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="E36" s="20" t="str">
-        <f>CONCATENATE("128'h", E35, ";")</f>
-        <v>128'h10154030202240321017676710176767;</v>
-      </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-    </row>
-    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:36">
+      <c r="D36" s="35" t="str">
+        <f>CONCATENATE("256'h", E35, ";")</f>
+        <v>256'h1E001E252300210020002020230021201E001E2D2C2D2C2D1E001E2D2C2D2C2D;</v>
+      </c>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+    </row>
+    <row r="39" spans="2:36">
       <c r="D39" s="8" t="s">
         <v>140</v>
       </c>
       <c r="E39" s="8">
         <v>7</v>
       </c>
-      <c r="F39" s="17" t="str">
+      <c r="F39" s="32" t="str">
         <f>CONCATENATE("4'd", E39, ": note = `note_", D39, ";")</f>
         <v>4'd7: note = `note_G4p;</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+    </row>
+    <row r="40" spans="2:36">
       <c r="D40" s="8" t="s">
         <v>139</v>
       </c>
       <c r="E40" s="8">
         <v>6</v>
       </c>
-      <c r="F40" s="17" t="str">
+      <c r="F40" s="32" t="str">
         <f t="shared" ref="F40:F46" si="2">CONCATENATE("4'd", E40, ": note = `note_", D40, ";")</f>
         <v>4'd6: note = `note_G4;</v>
       </c>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+    </row>
+    <row r="41" spans="2:36">
       <c r="D41" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E41" s="8">
         <v>5</v>
       </c>
-      <c r="F41" s="17" t="str">
+      <c r="F41" s="32" t="str">
         <f t="shared" si="2"/>
         <v>4'd5: note = `note_C4;</v>
       </c>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+    </row>
+    <row r="42" spans="2:36">
       <c r="D42" s="8" t="s">
         <v>130</v>
       </c>
       <c r="E42" s="8">
         <v>4</v>
       </c>
-      <c r="F42" s="17" t="str">
+      <c r="F42" s="32" t="str">
         <f t="shared" si="2"/>
         <v>4'd4: note = `note_A3p;</v>
       </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-    </row>
-    <row r="43" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+    </row>
+    <row r="43" spans="2:36">
       <c r="D43" s="8" t="s">
         <v>128</v>
       </c>
       <c r="E43" s="8">
         <v>3</v>
       </c>
-      <c r="F43" s="17" t="str">
+      <c r="F43" s="32" t="str">
         <f t="shared" si="2"/>
         <v>4'd3: note = `note_G3p;</v>
       </c>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-    </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+    </row>
+    <row r="44" spans="2:36">
       <c r="D44" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E44" s="8">
         <v>2</v>
       </c>
-      <c r="F44" s="17" t="str">
+      <c r="F44" s="32" t="str">
         <f t="shared" si="2"/>
         <v>4'd2: note = `note_G3;</v>
       </c>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="45" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+    </row>
+    <row r="45" spans="2:36">
       <c r="D45" s="8" t="s">
         <v>125</v>
       </c>
       <c r="E45" s="8">
         <v>1</v>
       </c>
-      <c r="F45" s="17" t="str">
+      <c r="F45" s="32" t="str">
         <f t="shared" si="2"/>
         <v>4'd1: note = `note_F3;</v>
       </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+    </row>
+    <row r="46" spans="2:36">
       <c r="D46" s="8" t="s">
         <v>141</v>
       </c>
       <c r="E46" s="8">
         <v>0</v>
       </c>
-      <c r="F46" s="17" t="str">
+      <c r="F46" s="32" t="str">
         <f t="shared" si="2"/>
         <v>4'd0: note = `note_none;</v>
       </c>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-    </row>
-    <row r="48" spans="2:36" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="27" t="s">
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+    </row>
+    <row r="48" spans="2:36" s="15" customFormat="1">
+      <c r="B48" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-    </row>
-    <row r="49" spans="1:68" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+    </row>
+    <row r="49" spans="1:68" s="15" customFormat="1">
       <c r="E49" s="15">
         <v>0</v>
       </c>
@@ -5463,75 +5857,75 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:68" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:68" s="5" customFormat="1">
       <c r="A50" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="AJ50" s="28"/>
+      <c r="D50" s="24"/>
+      <c r="T50" s="24"/>
+      <c r="AJ50" s="24"/>
       <c r="AO50" s="5">
         <v>1</v>
       </c>
       <c r="AP50" s="5">
         <v>1</v>
       </c>
-      <c r="AZ50" s="28"/>
-      <c r="BP50" s="28"/>
-    </row>
-    <row r="51" spans="1:68" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+      <c r="AZ50" s="24"/>
+      <c r="BP50" s="24"/>
+    </row>
+    <row r="51" spans="1:68" s="19" customFormat="1">
+      <c r="A51" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="T51" s="25"/>
-      <c r="AJ51" s="25"/>
-      <c r="AZ51" s="25"/>
-      <c r="BP51" s="25"/>
-    </row>
-    <row r="52" spans="1:68" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="D51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="AJ51" s="22"/>
+      <c r="AZ51" s="22"/>
+      <c r="BP51" s="22"/>
+    </row>
+    <row r="52" spans="1:68" s="19" customFormat="1">
+      <c r="A52" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C52" s="23"/>
-      <c r="E52" s="24"/>
-      <c r="T52" s="25"/>
-      <c r="AJ52" s="25"/>
-      <c r="AZ52" s="25"/>
-      <c r="BP52" s="25"/>
-    </row>
-    <row r="53" spans="1:68" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
+      <c r="C52" s="20"/>
+      <c r="E52" s="21"/>
+      <c r="T52" s="22"/>
+      <c r="AJ52" s="22"/>
+      <c r="AZ52" s="22"/>
+      <c r="BP52" s="22"/>
+    </row>
+    <row r="53" spans="1:68" s="19" customFormat="1">
+      <c r="A53" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="E53" s="24"/>
-      <c r="T53" s="25"/>
-      <c r="AJ53" s="25"/>
-      <c r="AZ53" s="25"/>
-      <c r="BP53" s="25"/>
-    </row>
-    <row r="54" spans="1:68" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="20"/>
+      <c r="E53" s="21"/>
+      <c r="T53" s="22"/>
+      <c r="AJ53" s="22"/>
+      <c r="AZ53" s="22"/>
+      <c r="BP53" s="22"/>
+    </row>
+    <row r="54" spans="1:68" s="5" customFormat="1">
       <c r="A54" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C54" s="6"/>
       <c r="E54" s="7"/>
-      <c r="T54" s="28"/>
+      <c r="T54" s="24"/>
       <c r="AE54" s="5">
         <v>1</v>
       </c>
-      <c r="AJ54" s="28"/>
-      <c r="AZ54" s="28"/>
-      <c r="BP54" s="28"/>
-    </row>
-    <row r="55" spans="1:68" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ54" s="24"/>
+      <c r="AZ54" s="24"/>
+      <c r="BP54" s="24"/>
+    </row>
+    <row r="55" spans="1:68" s="5" customFormat="1">
       <c r="A55" s="5" t="s">
         <v>142</v>
       </c>
       <c r="C55" s="6"/>
       <c r="E55" s="7"/>
-      <c r="T55" s="28"/>
+      <c r="T55" s="24"/>
       <c r="X55" s="5">
         <v>1</v>
       </c>
@@ -5541,28 +5935,28 @@
       <c r="AH55" s="5">
         <v>1</v>
       </c>
-      <c r="AJ55" s="28"/>
+      <c r="AJ55" s="24"/>
       <c r="AM55" s="5">
         <v>1</v>
       </c>
       <c r="AN55" s="5">
         <v>1</v>
       </c>
-      <c r="AZ55" s="28"/>
-      <c r="BP55" s="28"/>
-    </row>
-    <row r="56" spans="1:68" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="AZ55" s="24"/>
+      <c r="BP55" s="24"/>
+    </row>
+    <row r="56" spans="1:68" s="19" customFormat="1">
+      <c r="A56" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="E56" s="24"/>
-      <c r="T56" s="25"/>
-      <c r="AJ56" s="25"/>
-      <c r="AZ56" s="25"/>
-      <c r="BP56" s="25"/>
-    </row>
-    <row r="57" spans="1:68" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="20"/>
+      <c r="E56" s="21"/>
+      <c r="T56" s="22"/>
+      <c r="AJ56" s="22"/>
+      <c r="AZ56" s="22"/>
+      <c r="BP56" s="22"/>
+    </row>
+    <row r="57" spans="1:68" s="5" customFormat="1">
       <c r="A57" s="5" t="s">
         <v>139</v>
       </c>
@@ -5571,23 +5965,23 @@
       <c r="O57" s="5">
         <v>1</v>
       </c>
-      <c r="T57" s="28"/>
-      <c r="AJ57" s="28"/>
-      <c r="AZ57" s="28"/>
-      <c r="BP57" s="28"/>
-    </row>
-    <row r="58" spans="1:68" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+      <c r="T57" s="24"/>
+      <c r="AJ57" s="24"/>
+      <c r="AZ57" s="24"/>
+      <c r="BP57" s="24"/>
+    </row>
+    <row r="58" spans="1:68" s="19" customFormat="1">
+      <c r="A58" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="23"/>
-      <c r="E58" s="24"/>
-      <c r="T58" s="25"/>
-      <c r="AJ58" s="25"/>
-      <c r="AZ58" s="25"/>
-      <c r="BP58" s="25"/>
-    </row>
-    <row r="59" spans="1:68" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="20"/>
+      <c r="E58" s="21"/>
+      <c r="T58" s="22"/>
+      <c r="AJ58" s="22"/>
+      <c r="AZ58" s="22"/>
+      <c r="BP58" s="22"/>
+    </row>
+    <row r="59" spans="1:68" s="5" customFormat="1">
       <c r="A59" s="5" t="s">
         <v>137</v>
       </c>
@@ -5596,45 +5990,45 @@
       <c r="H59" s="5">
         <v>1</v>
       </c>
-      <c r="T59" s="28"/>
+      <c r="T59" s="24"/>
       <c r="AI59" s="5">
         <v>1</v>
       </c>
-      <c r="AJ59" s="28">
-        <v>1</v>
-      </c>
-      <c r="AZ59" s="28"/>
-      <c r="BP59" s="28"/>
-    </row>
-    <row r="60" spans="1:68" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AJ59" s="24">
+        <v>1</v>
+      </c>
+      <c r="AZ59" s="24"/>
+      <c r="BP59" s="24"/>
+    </row>
+    <row r="60" spans="1:68" s="5" customFormat="1">
       <c r="A60" s="5" t="s">
         <v>136</v>
       </c>
       <c r="C60" s="6"/>
       <c r="E60" s="7"/>
-      <c r="T60" s="28"/>
-      <c r="AJ60" s="28"/>
+      <c r="T60" s="24"/>
+      <c r="AJ60" s="24"/>
       <c r="AW60" s="5">
         <v>1</v>
       </c>
       <c r="AX60" s="5">
         <v>1</v>
       </c>
-      <c r="AZ60" s="28"/>
-      <c r="BP60" s="28"/>
-    </row>
-    <row r="61" spans="1:68" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
+      <c r="AZ60" s="24"/>
+      <c r="BP60" s="24"/>
+    </row>
+    <row r="61" spans="1:68" s="19" customFormat="1">
+      <c r="A61" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C61" s="23"/>
-      <c r="E61" s="24"/>
-      <c r="T61" s="25"/>
-      <c r="AJ61" s="25"/>
-      <c r="AZ61" s="25"/>
-      <c r="BP61" s="25"/>
-    </row>
-    <row r="62" spans="1:68" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="20"/>
+      <c r="E61" s="21"/>
+      <c r="T61" s="22"/>
+      <c r="AJ61" s="22"/>
+      <c r="AZ61" s="22"/>
+      <c r="BP61" s="22"/>
+    </row>
+    <row r="62" spans="1:68" s="5" customFormat="1">
       <c r="A62" s="5" t="s">
         <v>132</v>
       </c>
@@ -5660,7 +6054,7 @@
       <c r="R62" s="5">
         <v>1</v>
       </c>
-      <c r="T62" s="28"/>
+      <c r="T62" s="24"/>
       <c r="U62" s="5">
         <v>1</v>
       </c>
@@ -5676,7 +6070,7 @@
       <c r="AD62" s="5">
         <v>1</v>
       </c>
-      <c r="AJ62" s="28"/>
+      <c r="AJ62" s="24"/>
       <c r="AK62" s="5">
         <v>1</v>
       </c>
@@ -5689,7 +6083,7 @@
       <c r="AY62" s="5">
         <v>1</v>
       </c>
-      <c r="AZ62" s="28">
+      <c r="AZ62" s="24">
         <v>1</v>
       </c>
       <c r="BA62" s="5">
@@ -5704,20 +6098,20 @@
       <c r="BD62" s="5">
         <v>1</v>
       </c>
-      <c r="BP62" s="28"/>
-    </row>
-    <row r="63" spans="1:68" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
+      <c r="BP62" s="24"/>
+    </row>
+    <row r="63" spans="1:68" s="19" customFormat="1">
+      <c r="A63" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="23"/>
-      <c r="E63" s="24"/>
-      <c r="T63" s="25"/>
-      <c r="AJ63" s="25"/>
-      <c r="AZ63" s="25"/>
-      <c r="BP63" s="25"/>
-    </row>
-    <row r="64" spans="1:68" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="20"/>
+      <c r="E63" s="21"/>
+      <c r="T63" s="22"/>
+      <c r="AJ63" s="22"/>
+      <c r="AZ63" s="22"/>
+      <c r="BP63" s="22"/>
+    </row>
+    <row r="64" spans="1:68" s="5" customFormat="1">
       <c r="A64" s="5" t="s">
         <v>107</v>
       </c>
@@ -5726,838 +6120,838 @@
       <c r="S64" s="5">
         <v>1</v>
       </c>
-      <c r="T64" s="28">
-        <v>1</v>
-      </c>
-      <c r="AJ64" s="28"/>
+      <c r="T64" s="24">
+        <v>1</v>
+      </c>
+      <c r="AJ64" s="24"/>
       <c r="AR64" s="5">
         <v>1</v>
       </c>
       <c r="AT64" s="5">
         <v>1</v>
       </c>
-      <c r="AZ64" s="28"/>
-      <c r="BP64" s="28"/>
-    </row>
-    <row r="65" spans="1:68" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+      <c r="AZ64" s="24"/>
+      <c r="BP64" s="24"/>
+    </row>
+    <row r="65" spans="1:68" s="19" customFormat="1">
+      <c r="A65" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C65" s="23"/>
-      <c r="E65" s="24"/>
-      <c r="T65" s="25"/>
-      <c r="AJ65" s="25"/>
-      <c r="AZ65" s="25"/>
-      <c r="BP65" s="25"/>
-    </row>
-    <row r="66" spans="1:68" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
+      <c r="C65" s="20"/>
+      <c r="E65" s="21"/>
+      <c r="T65" s="22"/>
+      <c r="AJ65" s="22"/>
+      <c r="AZ65" s="22"/>
+      <c r="BP65" s="22"/>
+    </row>
+    <row r="66" spans="1:68" s="19" customFormat="1">
+      <c r="A66" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="E66" s="24"/>
-      <c r="T66" s="25"/>
-      <c r="AJ66" s="25"/>
-      <c r="AZ66" s="25"/>
-      <c r="BP66" s="25"/>
-    </row>
-    <row r="67" spans="1:68" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="20"/>
+      <c r="E66" s="21"/>
+      <c r="T66" s="22"/>
+      <c r="AJ66" s="22"/>
+      <c r="AZ66" s="22"/>
+      <c r="BP66" s="22"/>
+    </row>
+    <row r="67" spans="1:68" s="5" customFormat="1">
       <c r="A67" s="5" t="s">
         <v>129</v>
       </c>
       <c r="C67" s="6"/>
       <c r="E67" s="7"/>
-      <c r="T67" s="28"/>
-      <c r="AJ67" s="28"/>
+      <c r="T67" s="24"/>
+      <c r="AJ67" s="24"/>
       <c r="AU67" s="5">
         <v>1</v>
       </c>
-      <c r="AZ67" s="28"/>
-      <c r="BP67" s="28"/>
-    </row>
-    <row r="68" spans="1:68" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="23"/>
-      <c r="E68" s="26"/>
-      <c r="T68" s="26"/>
-      <c r="AJ68" s="26"/>
-      <c r="AZ68" s="26"/>
-      <c r="BP68" s="26"/>
-    </row>
-    <row r="69" spans="1:68" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="30" t="s">
+      <c r="AZ67" s="24"/>
+      <c r="BP67" s="24"/>
+    </row>
+    <row r="68" spans="1:68" s="19" customFormat="1">
+      <c r="C68" s="20"/>
+      <c r="E68" s="23"/>
+      <c r="T68" s="23"/>
+      <c r="AJ68" s="23"/>
+      <c r="AZ68" s="23"/>
+      <c r="BP68" s="23"/>
+    </row>
+    <row r="69" spans="1:68" s="19" customFormat="1">
+      <c r="A69" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="31">
+      <c r="B69" s="37">
+        <v>33</v>
+      </c>
+      <c r="C69" s="27">
         <v>9</v>
       </c>
-      <c r="C69" s="31">
-        <v>9</v>
-      </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="31"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="31"/>
-      <c r="O69" s="31"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="31"/>
-      <c r="R69" s="31"/>
-      <c r="S69" s="31"/>
-      <c r="T69" s="31"/>
-      <c r="U69" s="31"/>
-      <c r="V69" s="31"/>
-      <c r="W69" s="31"/>
-      <c r="X69" s="31"/>
-      <c r="Y69" s="31"/>
-      <c r="Z69" s="31"/>
-      <c r="AA69" s="31"/>
-      <c r="AB69" s="31"/>
-      <c r="AC69" s="31"/>
-      <c r="AD69" s="31"/>
-      <c r="AE69" s="31"/>
-      <c r="AF69" s="31"/>
-      <c r="AG69" s="31"/>
-      <c r="AH69" s="31"/>
-      <c r="AI69" s="31"/>
-      <c r="AJ69" s="31"/>
-      <c r="AK69" s="31"/>
-      <c r="AL69" s="31"/>
-      <c r="AM69" s="31"/>
-      <c r="AN69" s="31"/>
-      <c r="AO69" s="31">
-        <v>1</v>
-      </c>
-      <c r="AP69" s="31">
-        <v>1</v>
-      </c>
-      <c r="AQ69" s="31"/>
-      <c r="AR69" s="31"/>
-      <c r="AS69" s="31"/>
-      <c r="AT69" s="31"/>
-      <c r="AU69" s="31"/>
-      <c r="AV69" s="31"/>
-      <c r="AW69" s="31"/>
-      <c r="AX69" s="31"/>
-      <c r="AY69" s="31"/>
-      <c r="AZ69" s="31"/>
-      <c r="BA69" s="31"/>
-      <c r="BB69" s="31"/>
-      <c r="BC69" s="31"/>
-      <c r="BD69" s="31"/>
-      <c r="BE69" s="31"/>
-      <c r="BF69" s="31"/>
-      <c r="BG69" s="31"/>
-      <c r="BH69" s="31"/>
-      <c r="BI69" s="31"/>
-      <c r="BJ69" s="31"/>
-      <c r="BK69" s="31"/>
-      <c r="BL69" s="31"/>
-      <c r="BM69" s="31"/>
-      <c r="BN69" s="31"/>
-      <c r="BO69" s="31"/>
-      <c r="BP69" s="32"/>
-    </row>
-    <row r="70" spans="1:68" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="24" t="s">
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="27"/>
+      <c r="R69" s="27"/>
+      <c r="S69" s="27"/>
+      <c r="T69" s="27"/>
+      <c r="U69" s="27"/>
+      <c r="V69" s="27"/>
+      <c r="W69" s="27"/>
+      <c r="X69" s="27"/>
+      <c r="Y69" s="27"/>
+      <c r="Z69" s="27"/>
+      <c r="AA69" s="27"/>
+      <c r="AB69" s="27"/>
+      <c r="AC69" s="27"/>
+      <c r="AD69" s="27"/>
+      <c r="AE69" s="27"/>
+      <c r="AF69" s="27"/>
+      <c r="AG69" s="27"/>
+      <c r="AH69" s="27"/>
+      <c r="AI69" s="27"/>
+      <c r="AJ69" s="27"/>
+      <c r="AK69" s="27"/>
+      <c r="AL69" s="27"/>
+      <c r="AM69" s="27"/>
+      <c r="AN69" s="27"/>
+      <c r="AO69" s="27">
+        <v>1</v>
+      </c>
+      <c r="AP69" s="27">
+        <v>1</v>
+      </c>
+      <c r="AQ69" s="27"/>
+      <c r="AR69" s="27"/>
+      <c r="AS69" s="27"/>
+      <c r="AT69" s="27"/>
+      <c r="AU69" s="27"/>
+      <c r="AV69" s="27"/>
+      <c r="AW69" s="27"/>
+      <c r="AX69" s="27"/>
+      <c r="AY69" s="27"/>
+      <c r="AZ69" s="27"/>
+      <c r="BA69" s="27"/>
+      <c r="BB69" s="27"/>
+      <c r="BC69" s="27"/>
+      <c r="BD69" s="27"/>
+      <c r="BE69" s="27"/>
+      <c r="BF69" s="27"/>
+      <c r="BG69" s="27"/>
+      <c r="BH69" s="27"/>
+      <c r="BI69" s="27"/>
+      <c r="BJ69" s="27"/>
+      <c r="BK69" s="27"/>
+      <c r="BL69" s="27"/>
+      <c r="BM69" s="27"/>
+      <c r="BN69" s="27"/>
+      <c r="BO69" s="27"/>
+      <c r="BP69" s="28"/>
+    </row>
+    <row r="70" spans="1:68" s="19" customFormat="1">
+      <c r="A70" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B70" s="24">
+      <c r="B70" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="29">
         <v>8</v>
       </c>
-      <c r="C70" s="33">
-        <v>8</v>
-      </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="26"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="26"/>
-      <c r="P70" s="26"/>
-      <c r="Q70" s="26"/>
-      <c r="R70" s="26"/>
-      <c r="S70" s="26"/>
-      <c r="T70" s="25"/>
-      <c r="U70" s="26"/>
-      <c r="V70" s="26"/>
-      <c r="W70" s="26"/>
-      <c r="X70" s="26"/>
-      <c r="Y70" s="26"/>
-      <c r="Z70" s="26"/>
-      <c r="AA70" s="26"/>
-      <c r="AB70" s="26"/>
-      <c r="AC70" s="26"/>
-      <c r="AD70" s="26"/>
-      <c r="AE70" s="26">
-        <v>1</v>
-      </c>
-      <c r="AF70" s="26"/>
-      <c r="AG70" s="26"/>
-      <c r="AH70" s="26"/>
-      <c r="AI70" s="26"/>
-      <c r="AJ70" s="25"/>
-      <c r="AK70" s="26"/>
-      <c r="AL70" s="26"/>
-      <c r="AM70" s="26"/>
-      <c r="AN70" s="26"/>
-      <c r="AO70" s="26"/>
-      <c r="AP70" s="26"/>
-      <c r="AQ70" s="26"/>
-      <c r="AR70" s="26"/>
-      <c r="AS70" s="26"/>
-      <c r="AT70" s="26"/>
-      <c r="AU70" s="26"/>
-      <c r="AV70" s="26"/>
-      <c r="AW70" s="26"/>
-      <c r="AX70" s="26"/>
-      <c r="AY70" s="26"/>
-      <c r="AZ70" s="25"/>
-      <c r="BA70" s="26"/>
-      <c r="BB70" s="26"/>
-      <c r="BC70" s="26"/>
-      <c r="BD70" s="26"/>
-      <c r="BE70" s="26"/>
-      <c r="BF70" s="26"/>
-      <c r="BG70" s="26"/>
-      <c r="BH70" s="26"/>
-      <c r="BI70" s="26"/>
-      <c r="BJ70" s="26"/>
-      <c r="BK70" s="26"/>
-      <c r="BL70" s="26"/>
-      <c r="BM70" s="26"/>
-      <c r="BN70" s="26"/>
-      <c r="BO70" s="26"/>
-      <c r="BP70" s="25"/>
-    </row>
-    <row r="71" spans="1:68" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="24" t="s">
+      <c r="D70" s="23"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="23"/>
+      <c r="P70" s="23"/>
+      <c r="Q70" s="23"/>
+      <c r="R70" s="23"/>
+      <c r="S70" s="23"/>
+      <c r="T70" s="22"/>
+      <c r="U70" s="23"/>
+      <c r="V70" s="23"/>
+      <c r="W70" s="23"/>
+      <c r="X70" s="23"/>
+      <c r="Y70" s="23"/>
+      <c r="Z70" s="23"/>
+      <c r="AA70" s="23"/>
+      <c r="AB70" s="23"/>
+      <c r="AC70" s="23"/>
+      <c r="AD70" s="23"/>
+      <c r="AE70" s="23">
+        <v>1</v>
+      </c>
+      <c r="AF70" s="23"/>
+      <c r="AG70" s="23"/>
+      <c r="AH70" s="23"/>
+      <c r="AI70" s="23"/>
+      <c r="AJ70" s="22"/>
+      <c r="AK70" s="23"/>
+      <c r="AL70" s="23"/>
+      <c r="AM70" s="23"/>
+      <c r="AN70" s="23"/>
+      <c r="AO70" s="23"/>
+      <c r="AP70" s="23"/>
+      <c r="AQ70" s="23"/>
+      <c r="AR70" s="23"/>
+      <c r="AS70" s="23"/>
+      <c r="AT70" s="23"/>
+      <c r="AU70" s="23"/>
+      <c r="AV70" s="23"/>
+      <c r="AW70" s="23"/>
+      <c r="AX70" s="23"/>
+      <c r="AY70" s="23"/>
+      <c r="AZ70" s="22"/>
+      <c r="BA70" s="23"/>
+      <c r="BB70" s="23"/>
+      <c r="BC70" s="23"/>
+      <c r="BD70" s="23"/>
+      <c r="BE70" s="23"/>
+      <c r="BF70" s="23"/>
+      <c r="BG70" s="23"/>
+      <c r="BH70" s="23"/>
+      <c r="BI70" s="23"/>
+      <c r="BJ70" s="23"/>
+      <c r="BK70" s="23"/>
+      <c r="BL70" s="23"/>
+      <c r="BM70" s="23"/>
+      <c r="BN70" s="23"/>
+      <c r="BO70" s="23"/>
+      <c r="BP70" s="22"/>
+    </row>
+    <row r="71" spans="1:68" s="19" customFormat="1">
+      <c r="A71" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B71" s="24">
+      <c r="B71" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="29">
         <v>7</v>
       </c>
-      <c r="C71" s="33">
-        <v>7</v>
-      </c>
-      <c r="D71" s="26"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="26"/>
-      <c r="O71" s="26"/>
-      <c r="P71" s="26"/>
-      <c r="Q71" s="26"/>
-      <c r="R71" s="26"/>
-      <c r="S71" s="26"/>
-      <c r="T71" s="25"/>
-      <c r="U71" s="26"/>
-      <c r="V71" s="26"/>
-      <c r="W71" s="26"/>
-      <c r="X71" s="26">
-        <v>1</v>
-      </c>
-      <c r="Y71" s="26"/>
-      <c r="Z71" s="26"/>
-      <c r="AA71" s="26"/>
-      <c r="AB71" s="26"/>
-      <c r="AC71" s="26"/>
-      <c r="AD71" s="26"/>
-      <c r="AE71" s="26"/>
-      <c r="AF71" s="26"/>
-      <c r="AG71" s="26">
-        <v>1</v>
-      </c>
-      <c r="AH71" s="26">
-        <v>1</v>
-      </c>
-      <c r="AI71" s="26"/>
-      <c r="AJ71" s="25"/>
-      <c r="AK71" s="26"/>
-      <c r="AL71" s="26"/>
-      <c r="AM71" s="26">
-        <v>1</v>
-      </c>
-      <c r="AN71" s="26">
-        <v>1</v>
-      </c>
-      <c r="AO71" s="26"/>
-      <c r="AP71" s="26"/>
-      <c r="AQ71" s="26"/>
-      <c r="AR71" s="26"/>
-      <c r="AS71" s="26"/>
-      <c r="AT71" s="26"/>
-      <c r="AU71" s="26"/>
-      <c r="AV71" s="26"/>
-      <c r="AW71" s="26"/>
-      <c r="AX71" s="26"/>
-      <c r="AY71" s="26"/>
-      <c r="AZ71" s="25"/>
-      <c r="BA71" s="26"/>
-      <c r="BB71" s="26"/>
-      <c r="BC71" s="26"/>
-      <c r="BD71" s="26"/>
-      <c r="BE71" s="26"/>
-      <c r="BF71" s="26"/>
-      <c r="BG71" s="26"/>
-      <c r="BH71" s="26"/>
-      <c r="BI71" s="26"/>
-      <c r="BJ71" s="26"/>
-      <c r="BK71" s="26"/>
-      <c r="BL71" s="26"/>
-      <c r="BM71" s="26"/>
-      <c r="BN71" s="26"/>
-      <c r="BO71" s="26"/>
-      <c r="BP71" s="25"/>
-    </row>
-    <row r="72" spans="1:68" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="24" t="s">
+      <c r="D71" s="23"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="23"/>
+      <c r="Q71" s="23"/>
+      <c r="R71" s="23"/>
+      <c r="S71" s="23"/>
+      <c r="T71" s="22"/>
+      <c r="U71" s="23"/>
+      <c r="V71" s="23"/>
+      <c r="W71" s="23"/>
+      <c r="X71" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="23"/>
+      <c r="Z71" s="23"/>
+      <c r="AA71" s="23"/>
+      <c r="AB71" s="23"/>
+      <c r="AC71" s="23"/>
+      <c r="AD71" s="23"/>
+      <c r="AE71" s="23"/>
+      <c r="AF71" s="23"/>
+      <c r="AG71" s="23">
+        <v>1</v>
+      </c>
+      <c r="AH71" s="23">
+        <v>1</v>
+      </c>
+      <c r="AI71" s="23"/>
+      <c r="AJ71" s="22"/>
+      <c r="AK71" s="23"/>
+      <c r="AL71" s="23"/>
+      <c r="AM71" s="23">
+        <v>1</v>
+      </c>
+      <c r="AN71" s="23">
+        <v>1</v>
+      </c>
+      <c r="AO71" s="23"/>
+      <c r="AP71" s="23"/>
+      <c r="AQ71" s="23"/>
+      <c r="AR71" s="23"/>
+      <c r="AS71" s="23"/>
+      <c r="AT71" s="23"/>
+      <c r="AU71" s="23"/>
+      <c r="AV71" s="23"/>
+      <c r="AW71" s="23"/>
+      <c r="AX71" s="23"/>
+      <c r="AY71" s="23"/>
+      <c r="AZ71" s="22"/>
+      <c r="BA71" s="23"/>
+      <c r="BB71" s="23"/>
+      <c r="BC71" s="23"/>
+      <c r="BD71" s="23"/>
+      <c r="BE71" s="23"/>
+      <c r="BF71" s="23"/>
+      <c r="BG71" s="23"/>
+      <c r="BH71" s="23"/>
+      <c r="BI71" s="23"/>
+      <c r="BJ71" s="23"/>
+      <c r="BK71" s="23"/>
+      <c r="BL71" s="23"/>
+      <c r="BM71" s="23"/>
+      <c r="BN71" s="23"/>
+      <c r="BO71" s="23"/>
+      <c r="BP71" s="22"/>
+    </row>
+    <row r="72" spans="1:68" s="19" customFormat="1">
+      <c r="A72" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="B72" s="24">
+      <c r="B72" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="29">
         <v>6</v>
       </c>
-      <c r="C72" s="33">
-        <v>6</v>
-      </c>
-      <c r="D72" s="26"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="26">
-        <v>1</v>
-      </c>
-      <c r="P72" s="26"/>
-      <c r="Q72" s="26"/>
-      <c r="R72" s="26"/>
-      <c r="S72" s="26"/>
-      <c r="T72" s="25"/>
-      <c r="U72" s="26"/>
-      <c r="V72" s="26"/>
-      <c r="W72" s="26"/>
-      <c r="X72" s="26"/>
-      <c r="Y72" s="26"/>
-      <c r="Z72" s="26"/>
-      <c r="AA72" s="26"/>
-      <c r="AB72" s="26"/>
-      <c r="AC72" s="26"/>
-      <c r="AD72" s="26"/>
-      <c r="AE72" s="26"/>
-      <c r="AF72" s="26"/>
-      <c r="AG72" s="26"/>
-      <c r="AH72" s="26"/>
-      <c r="AI72" s="26"/>
-      <c r="AJ72" s="25"/>
-      <c r="AK72" s="26"/>
-      <c r="AL72" s="26"/>
-      <c r="AM72" s="26"/>
-      <c r="AN72" s="26"/>
-      <c r="AO72" s="26"/>
-      <c r="AP72" s="26"/>
-      <c r="AQ72" s="26"/>
-      <c r="AR72" s="26"/>
-      <c r="AS72" s="26"/>
-      <c r="AT72" s="26"/>
-      <c r="AU72" s="26"/>
-      <c r="AV72" s="26"/>
-      <c r="AW72" s="26"/>
-      <c r="AX72" s="26"/>
-      <c r="AY72" s="26"/>
-      <c r="AZ72" s="25"/>
-      <c r="BA72" s="26"/>
-      <c r="BB72" s="26"/>
-      <c r="BC72" s="26"/>
-      <c r="BD72" s="26"/>
-      <c r="BE72" s="26"/>
-      <c r="BF72" s="26"/>
-      <c r="BG72" s="26"/>
-      <c r="BH72" s="26"/>
-      <c r="BI72" s="26"/>
-      <c r="BJ72" s="26"/>
-      <c r="BK72" s="26"/>
-      <c r="BL72" s="26"/>
-      <c r="BM72" s="26"/>
-      <c r="BN72" s="26"/>
-      <c r="BO72" s="26"/>
-      <c r="BP72" s="25"/>
-    </row>
-    <row r="73" spans="1:68" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
+      <c r="D72" s="23"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="23">
+        <v>1</v>
+      </c>
+      <c r="P72" s="23"/>
+      <c r="Q72" s="23"/>
+      <c r="R72" s="23"/>
+      <c r="S72" s="23"/>
+      <c r="T72" s="22"/>
+      <c r="U72" s="23"/>
+      <c r="V72" s="23"/>
+      <c r="W72" s="23"/>
+      <c r="X72" s="23"/>
+      <c r="Y72" s="23"/>
+      <c r="Z72" s="23"/>
+      <c r="AA72" s="23"/>
+      <c r="AB72" s="23"/>
+      <c r="AC72" s="23"/>
+      <c r="AD72" s="23"/>
+      <c r="AE72" s="23"/>
+      <c r="AF72" s="23"/>
+      <c r="AG72" s="23"/>
+      <c r="AH72" s="23"/>
+      <c r="AI72" s="23"/>
+      <c r="AJ72" s="22"/>
+      <c r="AK72" s="23"/>
+      <c r="AL72" s="23"/>
+      <c r="AM72" s="23"/>
+      <c r="AN72" s="23"/>
+      <c r="AO72" s="23"/>
+      <c r="AP72" s="23"/>
+      <c r="AQ72" s="23"/>
+      <c r="AR72" s="23"/>
+      <c r="AS72" s="23"/>
+      <c r="AT72" s="23"/>
+      <c r="AU72" s="23"/>
+      <c r="AV72" s="23"/>
+      <c r="AW72" s="23"/>
+      <c r="AX72" s="23"/>
+      <c r="AY72" s="23"/>
+      <c r="AZ72" s="22"/>
+      <c r="BA72" s="23"/>
+      <c r="BB72" s="23"/>
+      <c r="BC72" s="23"/>
+      <c r="BD72" s="23"/>
+      <c r="BE72" s="23"/>
+      <c r="BF72" s="23"/>
+      <c r="BG72" s="23"/>
+      <c r="BH72" s="23"/>
+      <c r="BI72" s="23"/>
+      <c r="BJ72" s="23"/>
+      <c r="BK72" s="23"/>
+      <c r="BL72" s="23"/>
+      <c r="BM72" s="23"/>
+      <c r="BN72" s="23"/>
+      <c r="BO72" s="23"/>
+      <c r="BP72" s="22"/>
+    </row>
+    <row r="73" spans="1:68" s="19" customFormat="1">
+      <c r="A73" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="B73" s="24">
+      <c r="B73" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" s="29">
         <v>5</v>
       </c>
-      <c r="C73" s="33">
-        <v>5</v>
-      </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26">
-        <v>1</v>
-      </c>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="26"/>
-      <c r="P73" s="26"/>
-      <c r="Q73" s="26"/>
-      <c r="R73" s="26"/>
-      <c r="S73" s="26"/>
-      <c r="T73" s="25"/>
-      <c r="U73" s="26"/>
-      <c r="V73" s="26"/>
-      <c r="W73" s="26"/>
-      <c r="X73" s="26"/>
-      <c r="Y73" s="26"/>
-      <c r="Z73" s="26"/>
-      <c r="AA73" s="26"/>
-      <c r="AB73" s="26"/>
-      <c r="AC73" s="26"/>
-      <c r="AD73" s="26"/>
-      <c r="AE73" s="26"/>
-      <c r="AF73" s="26"/>
-      <c r="AG73" s="26"/>
-      <c r="AH73" s="26"/>
-      <c r="AI73" s="26">
-        <v>1</v>
-      </c>
-      <c r="AJ73" s="25">
-        <v>1</v>
-      </c>
-      <c r="AK73" s="26"/>
-      <c r="AL73" s="26"/>
-      <c r="AM73" s="26"/>
-      <c r="AN73" s="26"/>
-      <c r="AO73" s="26"/>
-      <c r="AP73" s="26"/>
-      <c r="AQ73" s="26"/>
-      <c r="AR73" s="26"/>
-      <c r="AS73" s="26"/>
-      <c r="AT73" s="26"/>
-      <c r="AU73" s="26"/>
-      <c r="AV73" s="26"/>
-      <c r="AW73" s="26"/>
-      <c r="AX73" s="26"/>
-      <c r="AY73" s="26"/>
-      <c r="AZ73" s="25"/>
-      <c r="BA73" s="26"/>
-      <c r="BB73" s="26"/>
-      <c r="BC73" s="26"/>
-      <c r="BD73" s="26"/>
-      <c r="BE73" s="26"/>
-      <c r="BF73" s="26"/>
-      <c r="BG73" s="26"/>
-      <c r="BH73" s="26"/>
-      <c r="BI73" s="26"/>
-      <c r="BJ73" s="26"/>
-      <c r="BK73" s="26"/>
-      <c r="BL73" s="26"/>
-      <c r="BM73" s="26"/>
-      <c r="BN73" s="26"/>
-      <c r="BO73" s="26"/>
-      <c r="BP73" s="25"/>
-    </row>
-    <row r="74" spans="1:68" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="24" t="s">
+      <c r="D73" s="23"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23">
+        <v>1</v>
+      </c>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="23"/>
+      <c r="O73" s="23"/>
+      <c r="P73" s="23"/>
+      <c r="Q73" s="23"/>
+      <c r="R73" s="23"/>
+      <c r="S73" s="23"/>
+      <c r="T73" s="22"/>
+      <c r="U73" s="23"/>
+      <c r="V73" s="23"/>
+      <c r="W73" s="23"/>
+      <c r="X73" s="23"/>
+      <c r="Y73" s="23"/>
+      <c r="Z73" s="23"/>
+      <c r="AA73" s="23"/>
+      <c r="AB73" s="23"/>
+      <c r="AC73" s="23"/>
+      <c r="AD73" s="23"/>
+      <c r="AE73" s="23"/>
+      <c r="AF73" s="23"/>
+      <c r="AG73" s="23"/>
+      <c r="AH73" s="23"/>
+      <c r="AI73" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ73" s="22">
+        <v>1</v>
+      </c>
+      <c r="AK73" s="23"/>
+      <c r="AL73" s="23"/>
+      <c r="AM73" s="23"/>
+      <c r="AN73" s="23"/>
+      <c r="AO73" s="23"/>
+      <c r="AP73" s="23"/>
+      <c r="AQ73" s="23"/>
+      <c r="AR73" s="23"/>
+      <c r="AS73" s="23"/>
+      <c r="AT73" s="23"/>
+      <c r="AU73" s="23"/>
+      <c r="AV73" s="23"/>
+      <c r="AW73" s="23"/>
+      <c r="AX73" s="23"/>
+      <c r="AY73" s="23"/>
+      <c r="AZ73" s="22"/>
+      <c r="BA73" s="23"/>
+      <c r="BB73" s="23"/>
+      <c r="BC73" s="23"/>
+      <c r="BD73" s="23"/>
+      <c r="BE73" s="23"/>
+      <c r="BF73" s="23"/>
+      <c r="BG73" s="23"/>
+      <c r="BH73" s="23"/>
+      <c r="BI73" s="23"/>
+      <c r="BJ73" s="23"/>
+      <c r="BK73" s="23"/>
+      <c r="BL73" s="23"/>
+      <c r="BM73" s="23"/>
+      <c r="BN73" s="23"/>
+      <c r="BO73" s="23"/>
+      <c r="BP73" s="22"/>
+    </row>
+    <row r="74" spans="1:68" s="19" customFormat="1">
+      <c r="A74" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B74" s="24">
+      <c r="B74" s="38">
+        <v>29</v>
+      </c>
+      <c r="C74" s="29">
         <v>4</v>
       </c>
-      <c r="C74" s="33">
-        <v>4</v>
-      </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="26"/>
-      <c r="O74" s="26"/>
-      <c r="P74" s="26"/>
-      <c r="Q74" s="26"/>
-      <c r="R74" s="26"/>
-      <c r="S74" s="26"/>
-      <c r="T74" s="25"/>
-      <c r="U74" s="26"/>
-      <c r="V74" s="26"/>
-      <c r="W74" s="26"/>
-      <c r="X74" s="26"/>
-      <c r="Y74" s="26"/>
-      <c r="Z74" s="26"/>
-      <c r="AA74" s="26"/>
-      <c r="AB74" s="26"/>
-      <c r="AC74" s="26"/>
-      <c r="AD74" s="26"/>
-      <c r="AE74" s="26"/>
-      <c r="AF74" s="26"/>
-      <c r="AG74" s="26"/>
-      <c r="AH74" s="26"/>
-      <c r="AI74" s="26"/>
-      <c r="AJ74" s="25"/>
-      <c r="AK74" s="26"/>
-      <c r="AL74" s="26"/>
-      <c r="AM74" s="26"/>
-      <c r="AN74" s="26"/>
-      <c r="AO74" s="26"/>
-      <c r="AP74" s="26"/>
-      <c r="AQ74" s="26"/>
-      <c r="AR74" s="26"/>
-      <c r="AS74" s="26"/>
-      <c r="AT74" s="26"/>
-      <c r="AU74" s="26"/>
-      <c r="AV74" s="26"/>
-      <c r="AW74" s="26">
-        <v>1</v>
-      </c>
-      <c r="AX74" s="26">
-        <v>1</v>
-      </c>
-      <c r="AY74" s="26"/>
-      <c r="AZ74" s="25"/>
-      <c r="BA74" s="26"/>
-      <c r="BB74" s="26"/>
-      <c r="BC74" s="26"/>
-      <c r="BD74" s="26"/>
-      <c r="BE74" s="26"/>
-      <c r="BF74" s="26"/>
-      <c r="BG74" s="26"/>
-      <c r="BH74" s="26"/>
-      <c r="BI74" s="26"/>
-      <c r="BJ74" s="26"/>
-      <c r="BK74" s="26"/>
-      <c r="BL74" s="26"/>
-      <c r="BM74" s="26"/>
-      <c r="BN74" s="26"/>
-      <c r="BO74" s="26"/>
-      <c r="BP74" s="25"/>
-    </row>
-    <row r="75" spans="1:68" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="24" t="s">
+      <c r="D74" s="23"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="23"/>
+      <c r="T74" s="22"/>
+      <c r="U74" s="23"/>
+      <c r="V74" s="23"/>
+      <c r="W74" s="23"/>
+      <c r="X74" s="23"/>
+      <c r="Y74" s="23"/>
+      <c r="Z74" s="23"/>
+      <c r="AA74" s="23"/>
+      <c r="AB74" s="23"/>
+      <c r="AC74" s="23"/>
+      <c r="AD74" s="23"/>
+      <c r="AE74" s="23"/>
+      <c r="AF74" s="23"/>
+      <c r="AG74" s="23"/>
+      <c r="AH74" s="23"/>
+      <c r="AI74" s="23"/>
+      <c r="AJ74" s="22"/>
+      <c r="AK74" s="23"/>
+      <c r="AL74" s="23"/>
+      <c r="AM74" s="23"/>
+      <c r="AN74" s="23"/>
+      <c r="AO74" s="23"/>
+      <c r="AP74" s="23"/>
+      <c r="AQ74" s="23"/>
+      <c r="AR74" s="23"/>
+      <c r="AS74" s="23"/>
+      <c r="AT74" s="23"/>
+      <c r="AU74" s="23"/>
+      <c r="AV74" s="23"/>
+      <c r="AW74" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX74" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY74" s="23"/>
+      <c r="AZ74" s="22"/>
+      <c r="BA74" s="23"/>
+      <c r="BB74" s="23"/>
+      <c r="BC74" s="23"/>
+      <c r="BD74" s="23"/>
+      <c r="BE74" s="23"/>
+      <c r="BF74" s="23"/>
+      <c r="BG74" s="23"/>
+      <c r="BH74" s="23"/>
+      <c r="BI74" s="23"/>
+      <c r="BJ74" s="23"/>
+      <c r="BK74" s="23"/>
+      <c r="BL74" s="23"/>
+      <c r="BM74" s="23"/>
+      <c r="BN74" s="23"/>
+      <c r="BO74" s="23"/>
+      <c r="BP74" s="22"/>
+    </row>
+    <row r="75" spans="1:68" s="19" customFormat="1">
+      <c r="A75" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="24">
+      <c r="B75" s="38">
+        <v>27</v>
+      </c>
+      <c r="C75" s="29">
         <v>3</v>
       </c>
-      <c r="C75" s="33">
-        <v>3</v>
-      </c>
-      <c r="D75" s="26"/>
-      <c r="E75" s="24">
-        <v>1</v>
-      </c>
-      <c r="F75" s="26">
-        <v>1</v>
-      </c>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="26">
-        <v>1</v>
-      </c>
-      <c r="L75" s="26">
-        <v>1</v>
-      </c>
-      <c r="M75" s="26"/>
-      <c r="N75" s="26">
-        <v>1</v>
-      </c>
-      <c r="O75" s="26"/>
-      <c r="P75" s="26"/>
-      <c r="Q75" s="26">
-        <v>1</v>
-      </c>
-      <c r="R75" s="26">
-        <v>1</v>
-      </c>
-      <c r="S75" s="26"/>
-      <c r="T75" s="25"/>
-      <c r="U75" s="26">
-        <v>1</v>
-      </c>
-      <c r="V75" s="26">
-        <v>1</v>
-      </c>
-      <c r="W75" s="26"/>
-      <c r="X75" s="26"/>
-      <c r="Y75" s="26"/>
-      <c r="Z75" s="26"/>
-      <c r="AA75" s="26">
-        <v>1</v>
-      </c>
-      <c r="AB75" s="26">
-        <v>1</v>
-      </c>
-      <c r="AC75" s="26"/>
-      <c r="AD75" s="26">
-        <v>1</v>
-      </c>
-      <c r="AE75" s="26"/>
-      <c r="AF75" s="26"/>
-      <c r="AG75" s="26"/>
-      <c r="AH75" s="26"/>
-      <c r="AI75" s="26"/>
-      <c r="AJ75" s="25"/>
-      <c r="AK75" s="26">
-        <v>1</v>
-      </c>
-      <c r="AL75" s="26">
-        <v>1</v>
-      </c>
-      <c r="AM75" s="26"/>
-      <c r="AN75" s="26"/>
-      <c r="AO75" s="26"/>
-      <c r="AP75" s="26"/>
-      <c r="AQ75" s="26">
-        <v>1</v>
-      </c>
-      <c r="AR75" s="26"/>
-      <c r="AS75" s="26"/>
-      <c r="AT75" s="26"/>
-      <c r="AU75" s="26"/>
-      <c r="AV75" s="26"/>
-      <c r="AW75" s="26"/>
-      <c r="AX75" s="26"/>
-      <c r="AY75" s="26">
-        <v>1</v>
-      </c>
-      <c r="AZ75" s="25">
-        <v>1</v>
-      </c>
-      <c r="BA75" s="26">
-        <v>1</v>
-      </c>
-      <c r="BB75" s="26">
-        <v>1</v>
-      </c>
-      <c r="BC75" s="26">
-        <v>1</v>
-      </c>
-      <c r="BD75" s="26">
-        <v>1</v>
-      </c>
-      <c r="BE75" s="26"/>
-      <c r="BF75" s="26"/>
-      <c r="BG75" s="26"/>
-      <c r="BH75" s="26"/>
-      <c r="BI75" s="26"/>
-      <c r="BJ75" s="26"/>
-      <c r="BK75" s="26"/>
-      <c r="BL75" s="26"/>
-      <c r="BM75" s="26"/>
-      <c r="BN75" s="26"/>
-      <c r="BO75" s="26"/>
-      <c r="BP75" s="25"/>
-    </row>
-    <row r="76" spans="1:68" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="24" t="s">
+      <c r="D75" s="23"/>
+      <c r="E75" s="21">
+        <v>1</v>
+      </c>
+      <c r="F75" s="23">
+        <v>1</v>
+      </c>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23">
+        <v>1</v>
+      </c>
+      <c r="L75" s="23">
+        <v>1</v>
+      </c>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23">
+        <v>1</v>
+      </c>
+      <c r="O75" s="23"/>
+      <c r="P75" s="23"/>
+      <c r="Q75" s="23">
+        <v>1</v>
+      </c>
+      <c r="R75" s="23">
+        <v>1</v>
+      </c>
+      <c r="S75" s="23"/>
+      <c r="T75" s="22"/>
+      <c r="U75" s="23">
+        <v>1</v>
+      </c>
+      <c r="V75" s="23">
+        <v>1</v>
+      </c>
+      <c r="W75" s="23"/>
+      <c r="X75" s="23"/>
+      <c r="Y75" s="23"/>
+      <c r="Z75" s="23"/>
+      <c r="AA75" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB75" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC75" s="23"/>
+      <c r="AD75" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE75" s="23"/>
+      <c r="AF75" s="23"/>
+      <c r="AG75" s="23"/>
+      <c r="AH75" s="23"/>
+      <c r="AI75" s="23"/>
+      <c r="AJ75" s="22"/>
+      <c r="AK75" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL75" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM75" s="23"/>
+      <c r="AN75" s="23"/>
+      <c r="AO75" s="23"/>
+      <c r="AP75" s="23"/>
+      <c r="AQ75" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR75" s="23"/>
+      <c r="AS75" s="23"/>
+      <c r="AT75" s="23"/>
+      <c r="AU75" s="23"/>
+      <c r="AV75" s="23"/>
+      <c r="AW75" s="23"/>
+      <c r="AX75" s="23"/>
+      <c r="AY75" s="23">
+        <v>1</v>
+      </c>
+      <c r="AZ75" s="22">
+        <v>1</v>
+      </c>
+      <c r="BA75" s="23">
+        <v>1</v>
+      </c>
+      <c r="BB75" s="23">
+        <v>1</v>
+      </c>
+      <c r="BC75" s="23">
+        <v>1</v>
+      </c>
+      <c r="BD75" s="23">
+        <v>1</v>
+      </c>
+      <c r="BE75" s="23"/>
+      <c r="BF75" s="23"/>
+      <c r="BG75" s="23"/>
+      <c r="BH75" s="23"/>
+      <c r="BI75" s="23"/>
+      <c r="BJ75" s="23"/>
+      <c r="BK75" s="23"/>
+      <c r="BL75" s="23"/>
+      <c r="BM75" s="23"/>
+      <c r="BN75" s="23"/>
+      <c r="BO75" s="23"/>
+      <c r="BP75" s="22"/>
+    </row>
+    <row r="76" spans="1:68" s="19" customFormat="1">
+      <c r="A76" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B76" s="24">
+      <c r="B76" s="38">
+        <v>25</v>
+      </c>
+      <c r="C76" s="29">
         <v>2</v>
       </c>
-      <c r="C76" s="33">
-        <v>2</v>
-      </c>
-      <c r="D76" s="26"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="26"/>
-      <c r="M76" s="26"/>
-      <c r="N76" s="26"/>
-      <c r="O76" s="26"/>
-      <c r="P76" s="26"/>
-      <c r="Q76" s="26"/>
-      <c r="R76" s="26"/>
-      <c r="S76" s="26">
-        <v>1</v>
-      </c>
-      <c r="T76" s="25">
-        <v>1</v>
-      </c>
-      <c r="U76" s="26"/>
-      <c r="V76" s="26"/>
-      <c r="W76" s="26"/>
-      <c r="X76" s="26"/>
-      <c r="Y76" s="26"/>
-      <c r="Z76" s="26"/>
-      <c r="AA76" s="26"/>
-      <c r="AB76" s="26"/>
-      <c r="AC76" s="26"/>
-      <c r="AD76" s="26"/>
-      <c r="AE76" s="26"/>
-      <c r="AF76" s="26"/>
-      <c r="AG76" s="26"/>
-      <c r="AH76" s="26"/>
-      <c r="AI76" s="26"/>
-      <c r="AJ76" s="25"/>
-      <c r="AK76" s="26"/>
-      <c r="AL76" s="26"/>
-      <c r="AM76" s="26"/>
-      <c r="AN76" s="26"/>
-      <c r="AO76" s="26"/>
-      <c r="AP76" s="26"/>
-      <c r="AQ76" s="26"/>
-      <c r="AR76" s="26">
-        <v>1</v>
-      </c>
-      <c r="AS76" s="26"/>
-      <c r="AT76" s="26">
-        <v>1</v>
-      </c>
-      <c r="AU76" s="26"/>
-      <c r="AV76" s="26"/>
-      <c r="AW76" s="26"/>
-      <c r="AX76" s="26"/>
-      <c r="AY76" s="26"/>
-      <c r="AZ76" s="25"/>
-      <c r="BA76" s="26"/>
-      <c r="BB76" s="26"/>
-      <c r="BC76" s="26"/>
-      <c r="BD76" s="26"/>
-      <c r="BE76" s="26"/>
-      <c r="BF76" s="26"/>
-      <c r="BG76" s="26"/>
-      <c r="BH76" s="26"/>
-      <c r="BI76" s="26"/>
-      <c r="BJ76" s="26"/>
-      <c r="BK76" s="26"/>
-      <c r="BL76" s="26"/>
-      <c r="BM76" s="26"/>
-      <c r="BN76" s="26"/>
-      <c r="BO76" s="26"/>
-      <c r="BP76" s="25"/>
-    </row>
-    <row r="77" spans="1:68" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="24" t="s">
+      <c r="D76" s="23"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="23"/>
+      <c r="P76" s="23"/>
+      <c r="Q76" s="23"/>
+      <c r="R76" s="23"/>
+      <c r="S76" s="23">
+        <v>1</v>
+      </c>
+      <c r="T76" s="22">
+        <v>1</v>
+      </c>
+      <c r="U76" s="23"/>
+      <c r="V76" s="23"/>
+      <c r="W76" s="23"/>
+      <c r="X76" s="23"/>
+      <c r="Y76" s="23"/>
+      <c r="Z76" s="23"/>
+      <c r="AA76" s="23"/>
+      <c r="AB76" s="23"/>
+      <c r="AC76" s="23"/>
+      <c r="AD76" s="23"/>
+      <c r="AE76" s="23"/>
+      <c r="AF76" s="23"/>
+      <c r="AG76" s="23"/>
+      <c r="AH76" s="23"/>
+      <c r="AI76" s="23"/>
+      <c r="AJ76" s="22"/>
+      <c r="AK76" s="23"/>
+      <c r="AL76" s="23"/>
+      <c r="AM76" s="23"/>
+      <c r="AN76" s="23"/>
+      <c r="AO76" s="23"/>
+      <c r="AP76" s="23"/>
+      <c r="AQ76" s="23"/>
+      <c r="AR76" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS76" s="23"/>
+      <c r="AT76" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU76" s="23"/>
+      <c r="AV76" s="23"/>
+      <c r="AW76" s="23"/>
+      <c r="AX76" s="23"/>
+      <c r="AY76" s="23"/>
+      <c r="AZ76" s="22"/>
+      <c r="BA76" s="23"/>
+      <c r="BB76" s="23"/>
+      <c r="BC76" s="23"/>
+      <c r="BD76" s="23"/>
+      <c r="BE76" s="23"/>
+      <c r="BF76" s="23"/>
+      <c r="BG76" s="23"/>
+      <c r="BH76" s="23"/>
+      <c r="BI76" s="23"/>
+      <c r="BJ76" s="23"/>
+      <c r="BK76" s="23"/>
+      <c r="BL76" s="23"/>
+      <c r="BM76" s="23"/>
+      <c r="BN76" s="23"/>
+      <c r="BO76" s="23"/>
+      <c r="BP76" s="22"/>
+    </row>
+    <row r="77" spans="1:68" s="19" customFormat="1">
+      <c r="A77" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="24">
-        <v>1</v>
-      </c>
-      <c r="C77" s="33">
-        <v>1</v>
-      </c>
-      <c r="D77" s="25"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="26"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="26"/>
-      <c r="P77" s="26"/>
-      <c r="Q77" s="26"/>
-      <c r="R77" s="26"/>
-      <c r="S77" s="26"/>
-      <c r="T77" s="25"/>
-      <c r="U77" s="26"/>
-      <c r="V77" s="26"/>
-      <c r="W77" s="26"/>
-      <c r="X77" s="26"/>
-      <c r="Y77" s="26"/>
-      <c r="Z77" s="26"/>
-      <c r="AA77" s="26"/>
-      <c r="AB77" s="26"/>
-      <c r="AC77" s="26"/>
-      <c r="AD77" s="26"/>
-      <c r="AE77" s="26"/>
-      <c r="AF77" s="26"/>
-      <c r="AG77" s="26"/>
-      <c r="AH77" s="26"/>
-      <c r="AI77" s="26"/>
-      <c r="AJ77" s="25"/>
-      <c r="AK77" s="26"/>
-      <c r="AL77" s="26"/>
-      <c r="AM77" s="26"/>
-      <c r="AN77" s="26"/>
-      <c r="AO77" s="26"/>
-      <c r="AP77" s="26"/>
-      <c r="AQ77" s="26"/>
-      <c r="AR77" s="26"/>
-      <c r="AS77" s="26"/>
-      <c r="AT77" s="26"/>
-      <c r="AU77" s="26">
-        <v>1</v>
-      </c>
-      <c r="AV77" s="26"/>
-      <c r="AW77" s="26"/>
-      <c r="AX77" s="26"/>
-      <c r="AY77" s="26"/>
-      <c r="AZ77" s="25"/>
-      <c r="BA77" s="26"/>
-      <c r="BB77" s="26"/>
-      <c r="BC77" s="26"/>
-      <c r="BD77" s="26"/>
-      <c r="BE77" s="26"/>
-      <c r="BF77" s="26"/>
-      <c r="BG77" s="26"/>
-      <c r="BH77" s="26"/>
-      <c r="BI77" s="26"/>
-      <c r="BJ77" s="26"/>
-      <c r="BK77" s="26"/>
-      <c r="BL77" s="26"/>
-      <c r="BM77" s="26"/>
-      <c r="BN77" s="26"/>
-      <c r="BO77" s="26"/>
-      <c r="BP77" s="25"/>
-    </row>
-    <row r="78" spans="1:68" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="29" t="s">
+      <c r="B77" s="38">
+        <v>22</v>
+      </c>
+      <c r="C77" s="29">
+        <v>1</v>
+      </c>
+      <c r="D77" s="22"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="23"/>
+      <c r="P77" s="23"/>
+      <c r="Q77" s="23"/>
+      <c r="R77" s="23"/>
+      <c r="S77" s="23"/>
+      <c r="T77" s="22"/>
+      <c r="U77" s="23"/>
+      <c r="V77" s="23"/>
+      <c r="W77" s="23"/>
+      <c r="X77" s="23"/>
+      <c r="Y77" s="23"/>
+      <c r="Z77" s="23"/>
+      <c r="AA77" s="23"/>
+      <c r="AB77" s="23"/>
+      <c r="AC77" s="23"/>
+      <c r="AD77" s="23"/>
+      <c r="AE77" s="23"/>
+      <c r="AF77" s="23"/>
+      <c r="AG77" s="23"/>
+      <c r="AH77" s="23"/>
+      <c r="AI77" s="23"/>
+      <c r="AJ77" s="22"/>
+      <c r="AK77" s="23"/>
+      <c r="AL77" s="23"/>
+      <c r="AM77" s="23"/>
+      <c r="AN77" s="23"/>
+      <c r="AO77" s="23"/>
+      <c r="AP77" s="23"/>
+      <c r="AQ77" s="23"/>
+      <c r="AR77" s="23"/>
+      <c r="AS77" s="23"/>
+      <c r="AT77" s="23"/>
+      <c r="AU77" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV77" s="23"/>
+      <c r="AW77" s="23"/>
+      <c r="AX77" s="23"/>
+      <c r="AY77" s="23"/>
+      <c r="AZ77" s="22"/>
+      <c r="BA77" s="23"/>
+      <c r="BB77" s="23"/>
+      <c r="BC77" s="23"/>
+      <c r="BD77" s="23"/>
+      <c r="BE77" s="23"/>
+      <c r="BF77" s="23"/>
+      <c r="BG77" s="23"/>
+      <c r="BH77" s="23"/>
+      <c r="BI77" s="23"/>
+      <c r="BJ77" s="23"/>
+      <c r="BK77" s="23"/>
+      <c r="BL77" s="23"/>
+      <c r="BM77" s="23"/>
+      <c r="BN77" s="23"/>
+      <c r="BO77" s="23"/>
+      <c r="BP77" s="22"/>
+    </row>
+    <row r="78" spans="1:68" s="15" customFormat="1">
+      <c r="A78" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B78" s="29">
+      <c r="B78" s="39">
         <v>0</v>
       </c>
       <c r="C78" s="12">
         <v>0</v>
       </c>
-      <c r="D78" s="34"/>
+      <c r="D78" s="30"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
       <c r="G78" s="12">
@@ -6583,7 +6977,7 @@
       <c r="Q78" s="12"/>
       <c r="R78" s="12"/>
       <c r="S78" s="12"/>
-      <c r="T78" s="34"/>
+      <c r="T78" s="30"/>
       <c r="U78" s="12"/>
       <c r="V78" s="12"/>
       <c r="W78" s="12">
@@ -6609,7 +7003,7 @@
       <c r="AG78" s="12"/>
       <c r="AH78" s="12"/>
       <c r="AI78" s="12"/>
-      <c r="AJ78" s="34"/>
+      <c r="AJ78" s="30"/>
       <c r="AK78" s="12"/>
       <c r="AL78" s="12"/>
       <c r="AM78" s="12"/>
@@ -6629,7 +7023,7 @@
       <c r="AW78" s="12"/>
       <c r="AX78" s="12"/>
       <c r="AY78" s="12"/>
-      <c r="AZ78" s="34"/>
+      <c r="AZ78" s="30"/>
       <c r="BA78" s="12"/>
       <c r="BB78" s="12"/>
       <c r="BC78" s="12"/>
@@ -6667,328 +7061,328 @@
       <c r="BO78" s="12">
         <v>1</v>
       </c>
-      <c r="BP78" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:68" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="21"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="21"/>
-      <c r="O79" s="21"/>
-      <c r="P79" s="21"/>
-      <c r="Q79" s="21"/>
-      <c r="R79" s="21"/>
-      <c r="S79" s="21"/>
-      <c r="T79" s="21"/>
-      <c r="U79" s="21"/>
-      <c r="V79" s="21"/>
-      <c r="W79" s="21"/>
-      <c r="X79" s="21"/>
-      <c r="Y79" s="21"/>
-      <c r="Z79" s="21"/>
-      <c r="AA79" s="21"/>
-      <c r="AB79" s="21"/>
-      <c r="AC79" s="21"/>
-      <c r="AD79" s="21"/>
-      <c r="AE79" s="21"/>
-      <c r="AF79" s="21"/>
-      <c r="AG79" s="21"/>
-      <c r="AH79" s="21"/>
-      <c r="AI79" s="21"/>
-      <c r="AJ79" s="21"/>
-      <c r="AK79" s="21"/>
-    </row>
-    <row r="80" spans="1:68" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D80" s="21"/>
-      <c r="E80" s="15" t="str">
-        <f>CONCATENATE(IF(E69=1,$B$69,""), IF(E70=1,$B$70,""), IF(E71=1,$B$71,""), IF(E72=1,$B$72,""), IF(E73=1,$B$73,""), IF(E74=1,$B$74,""), IF(E75=1,$B$75,""), IF(E76=1,$B$76,""), IF(E77=1,$B$77,""), IF(E78=1,$B$78,""))</f>
-        <v>3</v>
-      </c>
-      <c r="F80" s="15" t="str">
-        <f t="shared" ref="F80:G80" si="3">CONCATENATE(IF(F69=1,$B$69,""), IF(F70=1,$B$70,""), IF(F71=1,$B$71,""), IF(F72=1,$B$72,""), IF(F73=1,$B$73,""), IF(F74=1,$B$74,""), IF(F75=1,$B$75,""), IF(F76=1,$B$76,""), IF(F77=1,$B$77,""), IF(F78=1,$B$78,""))</f>
-        <v>3</v>
-      </c>
-      <c r="G80" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="15" t="str">
-        <f>CONCATENATE(IF(H69=1,$B$69,""), IF(H70=1,$B$70,""), IF(H71=1,$B$71,""), IF(H72=1,$B$72,""), IF(H73=1,$B$73,""), IF(H74=1,$B$74,""), IF(H75=1,$B$75,""), IF(H76=1,$B$76,""), IF(H77=1,$B$77,""), IF(H78=1,$B$78,""))</f>
-        <v>5</v>
-      </c>
-      <c r="I80" s="15" t="str">
-        <f t="shared" ref="I80:BP80" si="4">CONCATENATE(IF(I69=1,$B$69,""), IF(I70=1,$B$70,""), IF(I71=1,$B$71,""), IF(I72=1,$B$72,""), IF(I73=1,$B$73,""), IF(I74=1,$B$74,""), IF(I75=1,$B$75,""), IF(I76=1,$B$76,""), IF(I77=1,$B$77,""), IF(I78=1,$B$78,""))</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="L80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="M80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="P80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="R80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="S80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="T80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="U80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="V80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="W80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="Y80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AB80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AC80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AE80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="AF80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="AH80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="AI80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="AJ80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="AK80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AL80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AM80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="AN80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="AO80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="AP80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="AQ80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AR80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AS80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AT80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AU80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AV80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AW80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AX80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AY80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AZ80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="BA80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="BB80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="BC80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="BD80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="BE80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BF80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BG80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BH80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BI80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BJ80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BK80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BL80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BM80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BN80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BO80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BP80" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="4:36" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E81" s="19" t="str">
+      <c r="BP78" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68" s="15" customFormat="1">
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
+      <c r="R79" s="18"/>
+      <c r="S79" s="18"/>
+      <c r="T79" s="18"/>
+      <c r="U79" s="18"/>
+      <c r="V79" s="18"/>
+      <c r="W79" s="18"/>
+      <c r="X79" s="18"/>
+      <c r="Y79" s="18"/>
+      <c r="Z79" s="18"/>
+      <c r="AA79" s="18"/>
+      <c r="AB79" s="18"/>
+      <c r="AC79" s="18"/>
+      <c r="AD79" s="18"/>
+      <c r="AE79" s="18"/>
+      <c r="AF79" s="18"/>
+      <c r="AG79" s="18"/>
+      <c r="AH79" s="18"/>
+      <c r="AI79" s="18"/>
+      <c r="AJ79" s="18"/>
+      <c r="AK79" s="18"/>
+    </row>
+    <row r="80" spans="1:68" s="15" customFormat="1">
+      <c r="D80" s="18"/>
+      <c r="E80" s="42" t="str">
+        <f t="shared" ref="E80:BP80" si="3">CONCATENATE(IF(E69=1,$B$69,""), IF(E70=1,$B$70,""), IF(E71=1,$B$71,""), IF(E72=1,$B$72,""), IF(E73=1,$B$73,""), IF(E74=1,$B$74,""), IF(E75=1,$B$75,""), IF(E76=1,$B$76,""), IF(E77=1,$B$77,""), IF(E78=1,"00",""))</f>
+        <v>27</v>
+      </c>
+      <c r="F80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="G80" s="42" t="str">
+        <f>CONCATENATE(IF(G69=1,$B$69,""), IF(G70=1,$B$70,""), IF(G71=1,$B$71,""), IF(G72=1,$B$72,""), IF(G73=1,$B$73,""), IF(G74=1,$B$74,""), IF(G75=1,$B$75,""), IF(G76=1,$B$76,""), IF(G77=1,$B$77,""), IF(G78=1,"00",""))</f>
+        <v>00</v>
+      </c>
+      <c r="H80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>2A</v>
+      </c>
+      <c r="I80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="J80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="K80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="L80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="M80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="N80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="O80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>2C</v>
+      </c>
+      <c r="P80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="Q80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="R80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="S80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="T80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="U80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="V80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="W80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="X80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>2E</v>
+      </c>
+      <c r="Y80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="Z80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="AA80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="AB80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="AC80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="AD80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="AE80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>2F</v>
+      </c>
+      <c r="AF80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="AG80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>2E</v>
+      </c>
+      <c r="AH80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>2E</v>
+      </c>
+      <c r="AI80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>2A</v>
+      </c>
+      <c r="AJ80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>2A</v>
+      </c>
+      <c r="AK80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="AL80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="AM80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>2E</v>
+      </c>
+      <c r="AN80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>2E</v>
+      </c>
+      <c r="AO80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="AP80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="AQ80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="AR80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="AS80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="AT80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="AU80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="AV80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="AW80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="AX80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="AY80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="AZ80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="BA80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="BB80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="BC80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="BD80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="BE80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="BF80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="BG80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="BH80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="BI80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="BJ80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="BK80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="BL80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="BM80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="BN80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="BO80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+      <c r="BP80" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="81" spans="4:36" s="15" customFormat="1">
+      <c r="E81" s="40" t="str">
         <f>CONCATENATE(E80, F80, G80, H80, I80, J80, K80, L80, M80, N80, O80, P80, Q80, R80, S80, T80, U80, V80, W80, X80, Y80, Z80, AA80, AB80, AC80, AD80, AE80, AF80, AG80, AH80, AI80, AJ80, AK80, AL80, AM80, AN80, AO80, AP80, AQ80, AR80, AS80, AT80, AU80, AV80, AW80, AX80, AY80, AZ80, BA80, BB80, BC80, BD80, BE80, BF80, BG80, BH80, BI80, BJ80, BK80, BL80, BM80, BN80, BO80, BP80)</f>
-        <v>3305003303603322330700330380775533779932021044333333000000000000</v>
-      </c>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
-      <c r="Q81" s="16"/>
-      <c r="R81" s="16"/>
-      <c r="S81" s="16"/>
-      <c r="T81" s="16"/>
-      <c r="U81" s="16"/>
+        <v>2727002A0000272700272C00272725252727002E0000272700272F002E2E2A2A27272E2E33332725002522002929272727272727000000000000000000000000</v>
+      </c>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="40"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="40"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="40"/>
+      <c r="R81" s="40"/>
+      <c r="S81" s="40"/>
+      <c r="T81" s="40"/>
+      <c r="U81" s="40"/>
       <c r="V81" s="16"/>
       <c r="W81" s="16"/>
       <c r="X81" s="16"/>
@@ -7005,161 +7399,185 @@
       <c r="AI81" s="16"/>
       <c r="AJ81" s="16"/>
     </row>
-    <row r="82" spans="4:36" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E82" s="20" t="str">
-        <f>CONCATENATE("256'h", E81, ";")</f>
-        <v>256'h3305003303603322330700330380775533779932021044333333000000000000;</v>
-      </c>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="20"/>
-      <c r="L82" s="20"/>
-    </row>
-    <row r="84" spans="4:36" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D84" s="35" t="s">
+    <row r="82" spans="4:36" s="15" customFormat="1">
+      <c r="E82" s="33" t="str">
+        <f>CONCATENATE("512'h", E81)</f>
+        <v>512'h2727002A0000272700272C00272725252727002E0000272700272F002E2E2A2A27272E2E33332725002522002929272727272727000000000000000000000000</v>
+      </c>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="33"/>
+      <c r="L82" s="33"/>
+      <c r="M82" s="33"/>
+      <c r="N82" s="33"/>
+      <c r="O82" s="33"/>
+      <c r="P82" s="33"/>
+      <c r="Q82" s="33"/>
+      <c r="R82" s="33"/>
+      <c r="S82" s="33"/>
+      <c r="T82" s="33"/>
+      <c r="U82" s="33"/>
+    </row>
+    <row r="84" spans="4:36" s="15" customFormat="1">
+      <c r="D84" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E84" s="35">
+      <c r="E84" s="31">
         <v>9</v>
       </c>
-      <c r="F84" s="17" t="str">
+      <c r="F84" s="32" t="str">
         <f>CONCATENATE("4'd", E84, ": note = `note_", D84, ";")</f>
         <v>4'd9: note = `note_D5;</v>
       </c>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-    </row>
-    <row r="85" spans="4:36" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D85" s="35" t="s">
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+    </row>
+    <row r="85" spans="4:36" s="15" customFormat="1">
+      <c r="D85" s="31" t="s">
         <v>143</v>
       </c>
       <c r="E85" s="8">
         <v>8</v>
       </c>
-      <c r="F85" s="17" t="str">
+      <c r="F85" s="32" t="str">
         <f>CONCATENATE("4'd", E85, ": note = `note_", D85, ";")</f>
         <v>4'd8: note = `note_A4p;</v>
       </c>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-    </row>
-    <row r="86" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D86" s="35" t="s">
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+    </row>
+    <row r="86" spans="4:36">
+      <c r="D86" s="31" t="s">
         <v>142</v>
       </c>
       <c r="E86" s="8">
         <v>7</v>
       </c>
-      <c r="F86" s="17" t="str">
+      <c r="F86" s="32" t="str">
         <f>CONCATENATE("4'd", E86, ": note = `note_", D86, ";")</f>
         <v>4'd7: note = `note_A4;</v>
       </c>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-    </row>
-    <row r="87" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D87" s="35" t="s">
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+    </row>
+    <row r="87" spans="4:36">
+      <c r="D87" s="31" t="s">
         <v>139</v>
       </c>
       <c r="E87" s="8">
         <v>6</v>
       </c>
-      <c r="F87" s="17" t="str">
-        <f t="shared" ref="F87:F93" si="5">CONCATENATE("4'd", E87, ": note = `note_", D87, ";")</f>
+      <c r="F87" s="32" t="str">
+        <f t="shared" ref="F87:F93" si="4">CONCATENATE("4'd", E87, ": note = `note_", D87, ";")</f>
         <v>4'd6: note = `note_G4;</v>
       </c>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-    </row>
-    <row r="88" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D88" s="35" t="s">
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+    </row>
+    <row r="88" spans="4:36">
+      <c r="D88" s="31" t="s">
         <v>137</v>
       </c>
       <c r="E88" s="8">
         <v>5</v>
       </c>
-      <c r="F88" s="17" t="str">
-        <f t="shared" si="5"/>
+      <c r="F88" s="32" t="str">
+        <f t="shared" si="4"/>
         <v>4'd5: note = `note_F4;</v>
       </c>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-    </row>
-    <row r="89" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D89" s="35" t="s">
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+    </row>
+    <row r="89" spans="4:36">
+      <c r="D89" s="31" t="s">
         <v>136</v>
       </c>
       <c r="E89" s="8">
         <v>4</v>
       </c>
-      <c r="F89" s="17" t="str">
-        <f t="shared" si="5"/>
+      <c r="F89" s="32" t="str">
+        <f t="shared" si="4"/>
         <v>4'd4: note = `note_E4;</v>
       </c>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-    </row>
-    <row r="90" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D90" s="35" t="s">
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+    </row>
+    <row r="90" spans="4:36">
+      <c r="D90" s="31" t="s">
         <v>132</v>
       </c>
       <c r="E90" s="8">
         <v>3</v>
       </c>
-      <c r="F90" s="17" t="str">
-        <f t="shared" si="5"/>
+      <c r="F90" s="32" t="str">
+        <f t="shared" si="4"/>
         <v>4'd3: note = `note_D4;</v>
       </c>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-    </row>
-    <row r="91" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D91" s="35" t="s">
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+    </row>
+    <row r="91" spans="4:36">
+      <c r="D91" s="31" t="s">
         <v>107</v>
       </c>
       <c r="E91" s="8">
         <v>2</v>
       </c>
-      <c r="F91" s="17" t="str">
-        <f t="shared" si="5"/>
+      <c r="F91" s="32" t="str">
+        <f t="shared" si="4"/>
         <v>4'd2: note = `note_C4;</v>
       </c>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-    </row>
-    <row r="92" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D92" s="35" t="s">
+      <c r="G91" s="33"/>
+      <c r="H91" s="33"/>
+    </row>
+    <row r="92" spans="4:36">
+      <c r="D92" s="31" t="s">
         <v>129</v>
       </c>
       <c r="E92" s="8">
         <v>1</v>
       </c>
-      <c r="F92" s="17" t="str">
-        <f t="shared" si="5"/>
+      <c r="F92" s="32" t="str">
+        <f t="shared" si="4"/>
         <v>4'd1: note = `note_A3;</v>
       </c>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-    </row>
-    <row r="93" spans="4:36" x14ac:dyDescent="0.25">
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+    </row>
+    <row r="93" spans="4:36">
       <c r="D93" s="8" t="s">
         <v>141</v>
       </c>
       <c r="E93" s="8">
         <v>0</v>
       </c>
-      <c r="F93" s="17" t="str">
-        <f t="shared" si="5"/>
+      <c r="F93" s="32" t="str">
+        <f t="shared" si="4"/>
         <v>4'd0: note = `note_none;</v>
       </c>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D36:T36"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="E35:L35"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="F86:H86"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="E82:U82"/>
+    <mergeCell ref="E81:U81"/>
     <mergeCell ref="F93:H93"/>
     <mergeCell ref="F85:H85"/>
     <mergeCell ref="F84:H84"/>
@@ -7168,21 +7586,6 @@
     <mergeCell ref="F90:H90"/>
     <mergeCell ref="F91:H91"/>
     <mergeCell ref="F92:H92"/>
-    <mergeCell ref="E81:L81"/>
-    <mergeCell ref="E82:L82"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="F87:H87"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="E35:L35"/>
-    <mergeCell ref="E36:L36"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F41:H41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7194,12 +7597,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
